--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_24_15.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_24_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1798969.076456644</v>
+        <v>-1799644.404039397</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10963864.64421075</v>
+        <v>10963864.64421076</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590120.9651681855</v>
+        <v>590120.9651681853</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13154846.74325549</v>
+        <v>13154846.74325548</v>
       </c>
     </row>
     <row r="11">
@@ -1379,13 +1379,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>108.8926439055177</v>
       </c>
-      <c r="G11" t="n">
-        <v>50.77451047174031</v>
-      </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>81.41933302178319</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,10 +1421,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>14.49330773019679</v>
       </c>
       <c r="U11" t="n">
-        <v>45.13813028023969</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1503,13 +1503,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>18.33977076023189</v>
+        <v>18.33977076023183</v>
       </c>
       <c r="V12" t="n">
-        <v>25.60878921364557</v>
+        <v>25.60878921364551</v>
       </c>
       <c r="W12" t="n">
-        <v>43.68940492399048</v>
+        <v>43.68940492399042</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>12.17897610810429</v>
+        <v>12.17897610810423</v>
       </c>
       <c r="T13" t="n">
-        <v>21.08161657925132</v>
+        <v>21.08161657925126</v>
       </c>
       <c r="U13" t="n">
-        <v>79.74018931927279</v>
+        <v>79.74018931927273</v>
       </c>
       <c r="V13" t="n">
-        <v>46.63640924092959</v>
+        <v>46.63640924092954</v>
       </c>
       <c r="W13" t="n">
-        <v>79.79263506140597</v>
+        <v>79.79263506140592</v>
       </c>
       <c r="X13" t="n">
-        <v>19.84041810629969</v>
+        <v>19.84041810629964</v>
       </c>
       <c r="Y13" t="n">
-        <v>12.44873204175866</v>
+        <v>12.4487320417586</v>
       </c>
     </row>
     <row r="14">
@@ -1607,23 +1607,23 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>108.8926439055177</v>
       </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
         <v>108.8926439055177</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>108.8926439055177</v>
       </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
@@ -1658,19 +1658,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>14.49330773019679</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>81.41933302178317</v>
       </c>
       <c r="W14" t="n">
-        <v>95.91264075197998</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>108.8926439055177</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1740,13 +1740,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>18.33977076023186</v>
+        <v>18.33977076023183</v>
       </c>
       <c r="V15" t="n">
-        <v>25.60878921364554</v>
+        <v>25.60878921364551</v>
       </c>
       <c r="W15" t="n">
-        <v>43.68940492399045</v>
+        <v>43.68940492399042</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>12.17897610810426</v>
+        <v>12.17897610810423</v>
       </c>
       <c r="T16" t="n">
-        <v>21.08161657925129</v>
+        <v>21.08161657925126</v>
       </c>
       <c r="U16" t="n">
-        <v>79.74018931927276</v>
+        <v>79.74018931927273</v>
       </c>
       <c r="V16" t="n">
-        <v>46.63640924092957</v>
+        <v>46.63640924092954</v>
       </c>
       <c r="W16" t="n">
-        <v>79.79263506140595</v>
+        <v>79.79263506140592</v>
       </c>
       <c r="X16" t="n">
-        <v>19.84041810629967</v>
+        <v>19.84041810629964</v>
       </c>
       <c r="Y16" t="n">
-        <v>12.44873204175863</v>
+        <v>12.4487320417586</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>74.23108846939283</v>
       </c>
       <c r="G17" t="n">
-        <v>81.2958470139933</v>
+        <v>81.29584701399327</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
         <v>50.05526074413945</v>
       </c>
       <c r="F20" t="n">
-        <v>74.23108846939274</v>
+        <v>74.23108846939283</v>
       </c>
       <c r="G20" t="n">
         <v>81.2958470139933</v>
@@ -2330,7 +2330,7 @@
         <v>74.23108846939283</v>
       </c>
       <c r="G23" t="n">
-        <v>81.2958470139933</v>
+        <v>81.29584701399327</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>194.9820702596952</v>
+        <v>194.9820702596951</v>
       </c>
       <c r="C26" t="n">
-        <v>178.2507559472428</v>
+        <v>178.2507559472427</v>
       </c>
       <c r="D26" t="n">
         <v>167.8703930228985</v>
       </c>
       <c r="E26" t="n">
-        <v>194.3836960235876</v>
+        <v>194.3836960235875</v>
       </c>
       <c r="F26" t="n">
-        <v>218.559523748841</v>
+        <v>218.5595237488409</v>
       </c>
       <c r="G26" t="n">
         <v>225.6242822934414</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>5.824744749948968</v>
+        <v>5.824744749948911</v>
       </c>
       <c r="T26" t="n">
-        <v>32.05890982450654</v>
+        <v>32.05890982450649</v>
       </c>
       <c r="U26" t="n">
-        <v>62.70373237454939</v>
+        <v>62.70373237454933</v>
       </c>
       <c r="V26" t="n">
-        <v>139.7988817908195</v>
+        <v>139.7988817908194</v>
       </c>
       <c r="W26" t="n">
         <v>161.7957772688547</v>
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>8.578201643100158</v>
+        <v>8.578201643100101</v>
       </c>
       <c r="U27" t="n">
-        <v>35.90537285454158</v>
+        <v>35.90537285454153</v>
       </c>
       <c r="V27" t="n">
-        <v>43.17439130795526</v>
+        <v>43.1743913079552</v>
       </c>
       <c r="W27" t="n">
-        <v>61.25500701830018</v>
+        <v>61.25500701830012</v>
       </c>
       <c r="X27" t="n">
-        <v>15.7272898767784</v>
+        <v>15.72728987677834</v>
       </c>
       <c r="Y27" t="n">
-        <v>14.93681168688616</v>
+        <v>14.9368116868861</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>29.74457820241398</v>
+        <v>29.74457820241393</v>
       </c>
       <c r="T28" t="n">
-        <v>38.64721867356101</v>
+        <v>38.64721867356096</v>
       </c>
       <c r="U28" t="n">
-        <v>97.30579141358248</v>
+        <v>97.30579141358243</v>
       </c>
       <c r="V28" t="n">
-        <v>64.20201133523929</v>
+        <v>64.20201133523923</v>
       </c>
       <c r="W28" t="n">
-        <v>97.35823715571567</v>
+        <v>97.35823715571561</v>
       </c>
       <c r="X28" t="n">
-        <v>37.40602020060939</v>
+        <v>37.40602020060933</v>
       </c>
       <c r="Y28" t="n">
-        <v>30.01433413606836</v>
+        <v>30.0143341360683</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>194.9820702596953</v>
+        <v>194.9820702596951</v>
       </c>
       <c r="C29" t="n">
-        <v>178.2507559472429</v>
+        <v>178.2507559472427</v>
       </c>
       <c r="D29" t="n">
-        <v>167.8703930228986</v>
+        <v>167.8703930228985</v>
       </c>
       <c r="E29" t="n">
-        <v>194.3836960235877</v>
+        <v>194.3836960235875</v>
       </c>
       <c r="F29" t="n">
-        <v>218.5595237488411</v>
+        <v>218.5595237488409</v>
       </c>
       <c r="G29" t="n">
-        <v>225.6242822934415</v>
+        <v>225.6242822934414</v>
       </c>
       <c r="H29" t="n">
-        <v>144.3284352794482</v>
+        <v>144.3284352794481</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>5.824744749949053</v>
+        <v>5.824744749948911</v>
       </c>
       <c r="T29" t="n">
-        <v>32.05890982450663</v>
+        <v>32.05890982450649</v>
       </c>
       <c r="U29" t="n">
-        <v>62.70373237454947</v>
+        <v>62.70373237454933</v>
       </c>
       <c r="V29" t="n">
-        <v>139.7988817908196</v>
+        <v>139.7988817908194</v>
       </c>
       <c r="W29" t="n">
-        <v>161.7957772688548</v>
+        <v>161.7957772688547</v>
       </c>
       <c r="X29" t="n">
-        <v>182.1272593994696</v>
+        <v>182.1272593994695</v>
       </c>
       <c r="Y29" t="n">
-        <v>197.952732019536</v>
+        <v>197.9527320195359</v>
       </c>
     </row>
     <row r="30">
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>8.578201643100243</v>
+        <v>8.578201643100101</v>
       </c>
       <c r="U30" t="n">
-        <v>35.90537285454167</v>
+        <v>35.90537285454153</v>
       </c>
       <c r="V30" t="n">
-        <v>43.17439130795535</v>
+        <v>43.1743913079552</v>
       </c>
       <c r="W30" t="n">
-        <v>61.25500701830026</v>
+        <v>61.25500701830012</v>
       </c>
       <c r="X30" t="n">
-        <v>15.72728987677849</v>
+        <v>15.72728987677834</v>
       </c>
       <c r="Y30" t="n">
-        <v>14.93681168688624</v>
+        <v>14.9368116868861</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>29.74457820241407</v>
+        <v>29.74457820241393</v>
       </c>
       <c r="T31" t="n">
-        <v>38.6472186735611</v>
+        <v>38.64721867356096</v>
       </c>
       <c r="U31" t="n">
-        <v>97.30579141358257</v>
+        <v>97.30579141358243</v>
       </c>
       <c r="V31" t="n">
-        <v>64.20201133523938</v>
+        <v>64.20201133523923</v>
       </c>
       <c r="W31" t="n">
-        <v>97.35823715571576</v>
+        <v>97.35823715571561</v>
       </c>
       <c r="X31" t="n">
-        <v>37.40602020060948</v>
+        <v>37.40602020060933</v>
       </c>
       <c r="Y31" t="n">
-        <v>30.01433413606844</v>
+        <v>30.0143341360683</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>194.9820702596952</v>
+        <v>194.9820702596951</v>
       </c>
       <c r="C32" t="n">
-        <v>178.2507559472428</v>
+        <v>178.2507559472427</v>
       </c>
       <c r="D32" t="n">
-        <v>167.8703930228986</v>
+        <v>167.8703930228985</v>
       </c>
       <c r="E32" t="n">
-        <v>194.3836960235876</v>
+        <v>194.3836960235875</v>
       </c>
       <c r="F32" t="n">
-        <v>218.559523748841</v>
+        <v>218.5595237488409</v>
       </c>
       <c r="G32" t="n">
-        <v>225.6242822934415</v>
+        <v>225.6242822934414</v>
       </c>
       <c r="H32" t="n">
-        <v>144.3284352794482</v>
+        <v>144.3284352794481</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>5.824744749949019</v>
+        <v>5.824744749948906</v>
       </c>
       <c r="T32" t="n">
-        <v>32.0589098245066</v>
+        <v>32.05890982450649</v>
       </c>
       <c r="U32" t="n">
-        <v>62.70373237454945</v>
+        <v>62.70373237454933</v>
       </c>
       <c r="V32" t="n">
-        <v>139.7988817908195</v>
+        <v>139.7988817908194</v>
       </c>
       <c r="W32" t="n">
-        <v>161.7957772688548</v>
+        <v>161.7957772688547</v>
       </c>
       <c r="X32" t="n">
-        <v>182.1272593994696</v>
+        <v>182.1272593994695</v>
       </c>
       <c r="Y32" t="n">
-        <v>197.952732019536</v>
+        <v>197.9527320195359</v>
       </c>
     </row>
     <row r="33">
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>8.578201643100215</v>
+        <v>8.578201643100101</v>
       </c>
       <c r="U33" t="n">
-        <v>35.90537285454164</v>
+        <v>35.90537285454153</v>
       </c>
       <c r="V33" t="n">
-        <v>43.17439130795532</v>
+        <v>43.1743913079552</v>
       </c>
       <c r="W33" t="n">
-        <v>61.25500701830023</v>
+        <v>61.25500701830012</v>
       </c>
       <c r="X33" t="n">
-        <v>15.72728987677846</v>
+        <v>15.72728987677834</v>
       </c>
       <c r="Y33" t="n">
-        <v>14.93681168688622</v>
+        <v>14.9368116868861</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>29.74457820241404</v>
+        <v>29.74457820241393</v>
       </c>
       <c r="T34" t="n">
-        <v>38.64721867356107</v>
+        <v>38.64721867356096</v>
       </c>
       <c r="U34" t="n">
-        <v>97.30579141358254</v>
+        <v>97.30579141358243</v>
       </c>
       <c r="V34" t="n">
-        <v>64.20201133523935</v>
+        <v>64.20201133523923</v>
       </c>
       <c r="W34" t="n">
-        <v>97.35823715571573</v>
+        <v>97.35823715571561</v>
       </c>
       <c r="X34" t="n">
-        <v>37.40602020060945</v>
+        <v>37.40602020060933</v>
       </c>
       <c r="Y34" t="n">
-        <v>30.01433413606841</v>
+        <v>30.0143341360683</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>162.9231604351887</v>
+        <v>162.9231604351886</v>
       </c>
       <c r="C35" t="n">
-        <v>146.1918461227363</v>
+        <v>146.1918461227362</v>
       </c>
       <c r="D35" t="n">
-        <v>135.8114831983921</v>
+        <v>135.811483198392</v>
       </c>
       <c r="E35" t="n">
-        <v>162.3247861990811</v>
+        <v>162.324786199081</v>
       </c>
       <c r="F35" t="n">
-        <v>186.5006139243345</v>
+        <v>186.5006139243344</v>
       </c>
       <c r="G35" t="n">
-        <v>193.565372468935</v>
+        <v>193.5653724689349</v>
       </c>
       <c r="H35" t="n">
-        <v>112.2695254549417</v>
+        <v>112.2695254549416</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>30.64482255004293</v>
+        <v>30.64482255004284</v>
       </c>
       <c r="V35" t="n">
-        <v>107.739971966313</v>
+        <v>107.7399719663129</v>
       </c>
       <c r="W35" t="n">
-        <v>129.7368674443483</v>
+        <v>129.7368674443482</v>
       </c>
       <c r="X35" t="n">
-        <v>150.0683495749631</v>
+        <v>150.068349574963</v>
       </c>
       <c r="Y35" t="n">
-        <v>165.8938221950295</v>
+        <v>165.8938221950294</v>
       </c>
     </row>
     <row r="36">
@@ -3399,13 +3399,13 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>3.846463030035127</v>
+        <v>3.846463030035042</v>
       </c>
       <c r="V36" t="n">
-        <v>11.1154814834488</v>
+        <v>11.11548148344872</v>
       </c>
       <c r="W36" t="n">
-        <v>29.19609719379372</v>
+        <v>29.19609719379363</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3475,19 +3475,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>6.58830884905456</v>
+        <v>6.588308849054474</v>
       </c>
       <c r="U37" t="n">
-        <v>65.24688158907603</v>
+        <v>65.24688158907594</v>
       </c>
       <c r="V37" t="n">
-        <v>32.14310151073283</v>
+        <v>32.14310151073275</v>
       </c>
       <c r="W37" t="n">
-        <v>65.29932733120921</v>
+        <v>65.29932733120913</v>
       </c>
       <c r="X37" t="n">
-        <v>5.347110376102933</v>
+        <v>5.347110376102847</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>162.9231604351887</v>
+        <v>162.9231604351886</v>
       </c>
       <c r="C38" t="n">
-        <v>146.1918461227363</v>
+        <v>146.1918461227362</v>
       </c>
       <c r="D38" t="n">
-        <v>135.8114831983921</v>
+        <v>135.811483198392</v>
       </c>
       <c r="E38" t="n">
-        <v>162.3247861990811</v>
+        <v>162.324786199081</v>
       </c>
       <c r="F38" t="n">
-        <v>186.5006139243345</v>
+        <v>186.5006139243344</v>
       </c>
       <c r="G38" t="n">
-        <v>193.565372468935</v>
+        <v>193.5653724689348</v>
       </c>
       <c r="H38" t="n">
-        <v>112.2695254549417</v>
+        <v>112.2695254549416</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>30.64482255004293</v>
+        <v>30.64482255004281</v>
       </c>
       <c r="V38" t="n">
-        <v>107.739971966313</v>
+        <v>107.7399719663129</v>
       </c>
       <c r="W38" t="n">
-        <v>129.7368674443483</v>
+        <v>129.7368674443481</v>
       </c>
       <c r="X38" t="n">
-        <v>150.0683495749631</v>
+        <v>150.068349574963</v>
       </c>
       <c r="Y38" t="n">
-        <v>165.8938221950295</v>
+        <v>165.8938221950294</v>
       </c>
     </row>
     <row r="39">
@@ -3636,13 +3636,13 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>3.846463030035127</v>
+        <v>3.846463030035013</v>
       </c>
       <c r="V39" t="n">
-        <v>11.1154814834488</v>
+        <v>11.11548148344869</v>
       </c>
       <c r="W39" t="n">
-        <v>29.19609719379372</v>
+        <v>29.19609719379361</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3712,19 +3712,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>6.58830884905456</v>
+        <v>6.588308849054446</v>
       </c>
       <c r="U40" t="n">
-        <v>65.24688158907603</v>
+        <v>65.24688158907591</v>
       </c>
       <c r="V40" t="n">
-        <v>32.14310151073283</v>
+        <v>32.14310151073272</v>
       </c>
       <c r="W40" t="n">
-        <v>65.29932733120921</v>
+        <v>65.2993273312091</v>
       </c>
       <c r="X40" t="n">
-        <v>5.347110376102933</v>
+        <v>5.347110376102819</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>162.9231604351887</v>
+        <v>162.9231604351886</v>
       </c>
       <c r="C41" t="n">
-        <v>146.1918461227363</v>
+        <v>146.1918461227362</v>
       </c>
       <c r="D41" t="n">
-        <v>135.811483198392</v>
+        <v>135.8114831983919</v>
       </c>
       <c r="E41" t="n">
-        <v>162.3247861990811</v>
+        <v>162.324786199081</v>
       </c>
       <c r="F41" t="n">
-        <v>186.5006139243345</v>
+        <v>186.5006139243344</v>
       </c>
       <c r="G41" t="n">
-        <v>193.5653724689349</v>
+        <v>193.5653724689348</v>
       </c>
       <c r="H41" t="n">
-        <v>112.2695254549416</v>
+        <v>112.2695254549415</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>30.64482255004287</v>
+        <v>30.64482255004279</v>
       </c>
       <c r="V41" t="n">
-        <v>107.739971966313</v>
+        <v>107.7399719663129</v>
       </c>
       <c r="W41" t="n">
-        <v>129.7368674443482</v>
+        <v>129.7368674443481</v>
       </c>
       <c r="X41" t="n">
-        <v>150.068349574963</v>
+        <v>150.0683495749629</v>
       </c>
       <c r="Y41" t="n">
-        <v>165.8938221950294</v>
+        <v>165.8938221950293</v>
       </c>
     </row>
     <row r="42">
@@ -3873,13 +3873,13 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>3.84646303003507</v>
+        <v>3.846463030034985</v>
       </c>
       <c r="V42" t="n">
-        <v>11.11548148344875</v>
+        <v>11.11548148344866</v>
       </c>
       <c r="W42" t="n">
-        <v>29.19609719379366</v>
+        <v>29.19609719379358</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3949,19 +3949,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>6.588308849054503</v>
+        <v>6.588308849054417</v>
       </c>
       <c r="U43" t="n">
-        <v>65.24688158907597</v>
+        <v>65.24688158907588</v>
       </c>
       <c r="V43" t="n">
-        <v>32.14310151073278</v>
+        <v>32.14310151073269</v>
       </c>
       <c r="W43" t="n">
-        <v>65.29932733120916</v>
+        <v>65.29932733120907</v>
       </c>
       <c r="X43" t="n">
-        <v>5.347110376102876</v>
+        <v>5.34711037610279</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3980,7 +3980,7 @@
         <v>146.1918461227362</v>
       </c>
       <c r="D44" t="n">
-        <v>135.811483198392</v>
+        <v>135.8114831983919</v>
       </c>
       <c r="E44" t="n">
         <v>162.324786199081</v>
@@ -3989,10 +3989,10 @@
         <v>186.5006139243344</v>
       </c>
       <c r="G44" t="n">
-        <v>193.5653724689349</v>
+        <v>193.5653724689348</v>
       </c>
       <c r="H44" t="n">
-        <v>112.2695254549416</v>
+        <v>112.2695254549415</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>30.64482255004285</v>
+        <v>30.64482255004279</v>
       </c>
       <c r="V44" t="n">
         <v>107.7399719663129</v>
       </c>
       <c r="W44" t="n">
-        <v>129.7368674443482</v>
+        <v>129.7368674443481</v>
       </c>
       <c r="X44" t="n">
-        <v>150.068349574963</v>
+        <v>150.0683495749629</v>
       </c>
       <c r="Y44" t="n">
-        <v>165.8938221950294</v>
+        <v>165.8938221950293</v>
       </c>
     </row>
     <row r="45">
@@ -4110,13 +4110,13 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>3.846463030035042</v>
+        <v>3.846463030034985</v>
       </c>
       <c r="V45" t="n">
-        <v>11.11548148344872</v>
+        <v>11.11548148344866</v>
       </c>
       <c r="W45" t="n">
-        <v>29.19609719379363</v>
+        <v>29.19609719379358</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4186,19 +4186,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>6.588308849054474</v>
+        <v>6.588308849054417</v>
       </c>
       <c r="U46" t="n">
-        <v>65.24688158907594</v>
+        <v>65.24688158907588</v>
       </c>
       <c r="V46" t="n">
-        <v>32.14310151073275</v>
+        <v>32.14310151073269</v>
       </c>
       <c r="W46" t="n">
-        <v>65.29932733120913</v>
+        <v>65.29932733120907</v>
       </c>
       <c r="X46" t="n">
-        <v>5.347110376102847</v>
+        <v>5.34711037610279</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>169.9913654288637</v>
+        <v>200.9457316410282</v>
       </c>
       <c r="C11" t="n">
-        <v>169.9913654288637</v>
+        <v>200.9457316410282</v>
       </c>
       <c r="D11" t="n">
-        <v>169.9913654288637</v>
+        <v>200.9457316410282</v>
       </c>
       <c r="E11" t="n">
-        <v>169.9913654288637</v>
+        <v>200.9457316410282</v>
       </c>
       <c r="F11" t="n">
-        <v>59.99879582733063</v>
+        <v>200.9457316410282</v>
       </c>
       <c r="G11" t="n">
-        <v>8.711411512441419</v>
+        <v>90.95316203949514</v>
       </c>
       <c r="H11" t="n">
         <v>8.711411512441419</v>
       </c>
       <c r="I11" t="n">
-        <v>28.71258106161152</v>
+        <v>28.71258106161158</v>
       </c>
       <c r="J11" t="n">
-        <v>99.88341772116715</v>
+        <v>28.71258106161158</v>
       </c>
       <c r="K11" t="n">
-        <v>157.0261063657749</v>
+        <v>28.71258106161158</v>
       </c>
       <c r="L11" t="n">
-        <v>211.2017114939855</v>
+        <v>82.88818618982222</v>
       </c>
       <c r="M11" t="n">
-        <v>319.0054289604481</v>
+        <v>91.77516727761059</v>
       </c>
       <c r="N11" t="n">
-        <v>319.0054289604481</v>
+        <v>181.3424820390725</v>
       </c>
       <c r="O11" t="n">
-        <v>383.8987047126483</v>
+        <v>289.1461995055351</v>
       </c>
       <c r="P11" t="n">
-        <v>435.5705756220709</v>
+        <v>289.1461995055351</v>
       </c>
       <c r="Q11" t="n">
-        <v>435.5705756220709</v>
+        <v>396.9499169719977</v>
       </c>
       <c r="R11" t="n">
-        <v>435.5705756220709</v>
+        <v>423.9471268511538</v>
       </c>
       <c r="S11" t="n">
         <v>435.5705756220709</v>
       </c>
       <c r="T11" t="n">
-        <v>435.5705756220709</v>
+        <v>420.9308708440943</v>
       </c>
       <c r="U11" t="n">
-        <v>389.9765046319298</v>
+        <v>420.9308708440943</v>
       </c>
       <c r="V11" t="n">
-        <v>389.9765046319298</v>
+        <v>420.9308708440943</v>
       </c>
       <c r="W11" t="n">
-        <v>389.9765046319298</v>
+        <v>420.9308708440943</v>
       </c>
       <c r="X11" t="n">
-        <v>389.9765046319298</v>
+        <v>420.9308708440943</v>
       </c>
       <c r="Y11" t="n">
-        <v>279.9839350303968</v>
+        <v>310.9383012425612</v>
       </c>
     </row>
     <row r="12">
@@ -5127,34 +5127,34 @@
         <v>8.711411512441419</v>
       </c>
       <c r="M12" t="n">
-        <v>8.711411512441419</v>
+        <v>88.33708193227702</v>
       </c>
       <c r="N12" t="n">
-        <v>8.711411512441419</v>
+        <v>88.33708193227702</v>
       </c>
       <c r="O12" t="n">
-        <v>8.711411512441419</v>
+        <v>88.33708193227702</v>
       </c>
       <c r="P12" t="n">
-        <v>88.33708193227724</v>
+        <v>88.33708193227702</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.33708193227724</v>
+        <v>88.33708193227702</v>
       </c>
       <c r="R12" t="n">
-        <v>88.33708193227724</v>
+        <v>88.33708193227702</v>
       </c>
       <c r="S12" t="n">
-        <v>88.33708193227724</v>
+        <v>88.33708193227702</v>
       </c>
       <c r="T12" t="n">
-        <v>97.23460837897468</v>
+        <v>97.23460837897451</v>
       </c>
       <c r="U12" t="n">
-        <v>78.70958740904348</v>
+        <v>78.70958740904337</v>
       </c>
       <c r="V12" t="n">
-        <v>52.84212355687625</v>
+        <v>52.84212355687619</v>
       </c>
       <c r="W12" t="n">
         <v>8.711411512441419</v>
@@ -5182,64 +5182,64 @@
         <v>8.711411512441419</v>
       </c>
       <c r="E13" t="n">
-        <v>67.4434759887237</v>
+        <v>8.711411512441419</v>
       </c>
       <c r="F13" t="n">
-        <v>126.9829872007667</v>
+        <v>8.711411512441419</v>
       </c>
       <c r="G13" t="n">
-        <v>165.2295638786502</v>
+        <v>8.711411512441419</v>
       </c>
       <c r="H13" t="n">
-        <v>211.407685089393</v>
+        <v>8.711411512441419</v>
       </c>
       <c r="I13" t="n">
-        <v>270.0495093003752</v>
+        <v>8.711411512441419</v>
       </c>
       <c r="J13" t="n">
-        <v>270.0495093003752</v>
+        <v>8.711411512441419</v>
       </c>
       <c r="K13" t="n">
-        <v>283.1750240952923</v>
+        <v>8.711411512441419</v>
       </c>
       <c r="L13" t="n">
-        <v>283.1750240952923</v>
+        <v>8.711411512441419</v>
       </c>
       <c r="M13" t="n">
-        <v>283.1750240952923</v>
+        <v>8.711411512441419</v>
       </c>
       <c r="N13" t="n">
-        <v>283.1750240952923</v>
+        <v>104.9948441015434</v>
       </c>
       <c r="O13" t="n">
-        <v>283.1750240952923</v>
+        <v>206.7288766823864</v>
       </c>
       <c r="P13" t="n">
-        <v>283.1750240952923</v>
+        <v>206.7288766823864</v>
       </c>
       <c r="Q13" t="n">
-        <v>283.1750240952923</v>
+        <v>283.1750240952919</v>
       </c>
       <c r="R13" t="n">
-        <v>283.1750240952923</v>
+        <v>283.1750240952919</v>
       </c>
       <c r="S13" t="n">
-        <v>270.8730280265</v>
+        <v>270.8730280264997</v>
       </c>
       <c r="T13" t="n">
-        <v>249.5784658252361</v>
+        <v>249.5784658252358</v>
       </c>
       <c r="U13" t="n">
-        <v>169.0328200481929</v>
+        <v>169.0328200481926</v>
       </c>
       <c r="V13" t="n">
-        <v>121.9253359664458</v>
+        <v>121.9253359664456</v>
       </c>
       <c r="W13" t="n">
-        <v>41.32671469229835</v>
+        <v>41.32671469229823</v>
       </c>
       <c r="X13" t="n">
-        <v>21.28588832229865</v>
+        <v>21.2858883222986</v>
       </c>
       <c r="Y13" t="n">
         <v>8.711411512441419</v>
@@ -5252,52 +5252,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>228.6965507155076</v>
+        <v>338.6891203170406</v>
       </c>
       <c r="C14" t="n">
         <v>228.6965507155076</v>
       </c>
       <c r="D14" t="n">
-        <v>118.7039811139745</v>
+        <v>228.6965507155076</v>
       </c>
       <c r="E14" t="n">
         <v>118.7039811139745</v>
       </c>
       <c r="F14" t="n">
-        <v>8.711411512441419</v>
+        <v>118.7039811139745</v>
       </c>
       <c r="G14" t="n">
-        <v>8.711411512441419</v>
+        <v>118.7039811139745</v>
       </c>
       <c r="H14" t="n">
         <v>8.711411512441419</v>
       </c>
       <c r="I14" t="n">
-        <v>28.71258106161155</v>
+        <v>28.71258106161158</v>
       </c>
       <c r="J14" t="n">
-        <v>99.88341772116721</v>
+        <v>28.71258106161158</v>
       </c>
       <c r="K14" t="n">
-        <v>154.1588167316729</v>
+        <v>136.5162985280741</v>
       </c>
       <c r="L14" t="n">
-        <v>208.3344218598835</v>
+        <v>142.6122618327821</v>
       </c>
       <c r="M14" t="n">
-        <v>276.4769143279136</v>
+        <v>221.4845736043124</v>
       </c>
       <c r="N14" t="n">
-        <v>276.4769143279136</v>
+        <v>221.4845736043124</v>
       </c>
       <c r="O14" t="n">
-        <v>341.3701900801138</v>
+        <v>221.4845736043124</v>
       </c>
       <c r="P14" t="n">
-        <v>396.9499169719977</v>
+        <v>329.288291070775</v>
       </c>
       <c r="Q14" t="n">
-        <v>396.9499169719977</v>
+        <v>329.288291070775</v>
       </c>
       <c r="R14" t="n">
         <v>423.9471268511538</v>
@@ -5306,22 +5306,22 @@
         <v>435.5705756220709</v>
       </c>
       <c r="T14" t="n">
-        <v>435.5705756220709</v>
+        <v>420.9308708440943</v>
       </c>
       <c r="U14" t="n">
-        <v>435.5705756220709</v>
+        <v>420.9308708440943</v>
       </c>
       <c r="V14" t="n">
-        <v>435.5705756220709</v>
+        <v>338.6891203170406</v>
       </c>
       <c r="W14" t="n">
         <v>338.6891203170406</v>
       </c>
       <c r="X14" t="n">
-        <v>228.6965507155076</v>
+        <v>338.6891203170406</v>
       </c>
       <c r="Y14" t="n">
-        <v>228.6965507155076</v>
+        <v>338.6891203170406</v>
       </c>
     </row>
     <row r="15">
@@ -5337,61 +5337,61 @@
         <v>8.711411512441419</v>
       </c>
       <c r="D15" t="n">
-        <v>35.06883573393891</v>
+        <v>35.0688357339388</v>
       </c>
       <c r="E15" t="n">
-        <v>35.06883573393891</v>
+        <v>35.0688357339388</v>
       </c>
       <c r="F15" t="n">
-        <v>97.2346083789746</v>
+        <v>97.23460837897451</v>
       </c>
       <c r="G15" t="n">
-        <v>97.2346083789746</v>
+        <v>97.23460837897451</v>
       </c>
       <c r="H15" t="n">
-        <v>97.2346083789746</v>
+        <v>97.23460837897451</v>
       </c>
       <c r="I15" t="n">
-        <v>97.2346083789746</v>
+        <v>97.23460837897451</v>
       </c>
       <c r="J15" t="n">
-        <v>97.2346083789746</v>
+        <v>97.23460837897451</v>
       </c>
       <c r="K15" t="n">
-        <v>97.2346083789746</v>
+        <v>97.23460837897451</v>
       </c>
       <c r="L15" t="n">
-        <v>97.2346083789746</v>
+        <v>97.23460837897451</v>
       </c>
       <c r="M15" t="n">
-        <v>97.2346083789746</v>
+        <v>97.23460837897451</v>
       </c>
       <c r="N15" t="n">
-        <v>97.2346083789746</v>
+        <v>97.23460837897451</v>
       </c>
       <c r="O15" t="n">
-        <v>97.2346083789746</v>
+        <v>97.23460837897451</v>
       </c>
       <c r="P15" t="n">
-        <v>97.2346083789746</v>
+        <v>97.23460837897451</v>
       </c>
       <c r="Q15" t="n">
-        <v>97.2346083789746</v>
+        <v>97.23460837897451</v>
       </c>
       <c r="R15" t="n">
-        <v>97.2346083789746</v>
+        <v>97.23460837897451</v>
       </c>
       <c r="S15" t="n">
-        <v>97.2346083789746</v>
+        <v>97.23460837897451</v>
       </c>
       <c r="T15" t="n">
-        <v>97.2346083789746</v>
+        <v>97.23460837897451</v>
       </c>
       <c r="U15" t="n">
-        <v>78.70958740904342</v>
+        <v>78.70958740904337</v>
       </c>
       <c r="V15" t="n">
-        <v>52.84212355687622</v>
+        <v>52.84212355687619</v>
       </c>
       <c r="W15" t="n">
         <v>8.711411512441419</v>
@@ -5413,70 +5413,70 @@
         <v>8.711411512441419</v>
       </c>
       <c r="C16" t="n">
-        <v>8.711411512441419</v>
+        <v>47.28516651830063</v>
       </c>
       <c r="D16" t="n">
-        <v>8.711411512441419</v>
+        <v>47.28516651830063</v>
       </c>
       <c r="E16" t="n">
-        <v>67.44347598872373</v>
+        <v>47.28516651830063</v>
       </c>
       <c r="F16" t="n">
-        <v>67.44347598872373</v>
+        <v>47.28516651830063</v>
       </c>
       <c r="G16" t="n">
-        <v>67.44347598872373</v>
+        <v>47.28516651830063</v>
       </c>
       <c r="H16" t="n">
-        <v>113.6215971994665</v>
+        <v>47.28516651830063</v>
       </c>
       <c r="I16" t="n">
-        <v>113.6215971994665</v>
+        <v>105.9269907292829</v>
       </c>
       <c r="J16" t="n">
-        <v>113.6215971994665</v>
+        <v>105.9269907292829</v>
       </c>
       <c r="K16" t="n">
-        <v>113.6215971994665</v>
+        <v>185.2324508254439</v>
       </c>
       <c r="L16" t="n">
-        <v>136.0124638603936</v>
+        <v>185.2324508254439</v>
       </c>
       <c r="M16" t="n">
-        <v>240.6886007904976</v>
+        <v>185.2324508254439</v>
       </c>
       <c r="N16" t="n">
-        <v>240.6886007904976</v>
+        <v>185.2324508254439</v>
       </c>
       <c r="O16" t="n">
-        <v>240.6886007904976</v>
+        <v>185.2324508254439</v>
       </c>
       <c r="P16" t="n">
-        <v>240.6886007904976</v>
+        <v>283.1750240952919</v>
       </c>
       <c r="Q16" t="n">
-        <v>240.6886007904976</v>
+        <v>283.1750240952919</v>
       </c>
       <c r="R16" t="n">
-        <v>283.175024095292</v>
+        <v>283.1750240952919</v>
       </c>
       <c r="S16" t="n">
-        <v>270.8730280264999</v>
+        <v>270.8730280264997</v>
       </c>
       <c r="T16" t="n">
-        <v>249.5784658252359</v>
+        <v>249.5784658252358</v>
       </c>
       <c r="U16" t="n">
-        <v>169.0328200481927</v>
+        <v>169.0328200481926</v>
       </c>
       <c r="V16" t="n">
-        <v>121.9253359664457</v>
+        <v>121.9253359664456</v>
       </c>
       <c r="W16" t="n">
-        <v>41.32671469229829</v>
+        <v>41.32671469229823</v>
       </c>
       <c r="X16" t="n">
-        <v>21.28588832229863</v>
+        <v>21.2858883222986</v>
       </c>
       <c r="Y16" t="n">
         <v>8.711411512441419</v>
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>274.4149212485733</v>
+        <v>274.414921248573</v>
       </c>
       <c r="C17" t="n">
-        <v>240.1499508770635</v>
+        <v>240.1499508770632</v>
       </c>
       <c r="D17" t="n">
-        <v>216.3701955806491</v>
+        <v>216.3701955806488</v>
       </c>
       <c r="E17" t="n">
-        <v>165.8093261421245</v>
+        <v>165.8093261421241</v>
       </c>
       <c r="F17" t="n">
-        <v>90.82842869829324</v>
+        <v>90.82842869829321</v>
       </c>
       <c r="G17" t="n">
         <v>8.711411512441419</v>
@@ -5510,55 +5510,55 @@
         <v>8.711411512441419</v>
       </c>
       <c r="I17" t="n">
-        <v>116.515128978904</v>
+        <v>8.711411512441419</v>
       </c>
       <c r="J17" t="n">
-        <v>116.515128978904</v>
+        <v>8.711411512441419</v>
       </c>
       <c r="K17" t="n">
-        <v>116.515128978904</v>
+        <v>8.711411512441419</v>
       </c>
       <c r="L17" t="n">
-        <v>116.515128978904</v>
+        <v>26.86670939309113</v>
       </c>
       <c r="M17" t="n">
-        <v>219.9631406891458</v>
+        <v>26.86670939309113</v>
       </c>
       <c r="N17" t="n">
-        <v>327.7668581556084</v>
+        <v>26.86670939309113</v>
       </c>
       <c r="O17" t="n">
-        <v>327.7668581556084</v>
+        <v>26.86670939309113</v>
       </c>
       <c r="P17" t="n">
-        <v>327.7668581556084</v>
+        <v>26.86670939309113</v>
       </c>
       <c r="Q17" t="n">
-        <v>327.7668581556084</v>
+        <v>134.6704268595537</v>
       </c>
       <c r="R17" t="n">
-        <v>327.7668581556084</v>
+        <v>134.6704268595537</v>
       </c>
       <c r="S17" t="n">
-        <v>435.5705756220709</v>
+        <v>242.4741443260162</v>
       </c>
       <c r="T17" t="n">
-        <v>435.5705756220709</v>
+        <v>350.2778617924788</v>
       </c>
       <c r="U17" t="n">
-        <v>435.5705756220709</v>
+        <v>431.0863176683285</v>
       </c>
       <c r="V17" t="n">
         <v>435.5705756220709</v>
       </c>
       <c r="W17" t="n">
-        <v>417.9267958347916</v>
+        <v>417.9267958347914</v>
       </c>
       <c r="X17" t="n">
-        <v>379.7461654105276</v>
+        <v>379.7461654105274</v>
       </c>
       <c r="Y17" t="n">
-        <v>325.5802091074086</v>
+        <v>325.5802091074083</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>435.5705756220709</v>
+        <v>8.711411512441419</v>
       </c>
       <c r="C18" t="n">
-        <v>435.5705756220709</v>
+        <v>8.711411512441419</v>
       </c>
       <c r="D18" t="n">
-        <v>435.5705756220709</v>
+        <v>8.711411512441419</v>
       </c>
       <c r="E18" t="n">
-        <v>435.5705756220709</v>
+        <v>8.711411512441419</v>
       </c>
       <c r="F18" t="n">
-        <v>435.5705756220709</v>
+        <v>8.711411512441419</v>
       </c>
       <c r="G18" t="n">
-        <v>435.5705756220709</v>
+        <v>8.711411512441419</v>
       </c>
       <c r="H18" t="n">
-        <v>435.5705756220709</v>
+        <v>8.711411512441419</v>
       </c>
       <c r="I18" t="n">
-        <v>435.5705756220709</v>
+        <v>8.711411512441419</v>
       </c>
       <c r="J18" t="n">
-        <v>435.5705756220709</v>
+        <v>8.711411512441419</v>
       </c>
       <c r="K18" t="n">
-        <v>435.5705756220709</v>
+        <v>8.711411512441419</v>
       </c>
       <c r="L18" t="n">
-        <v>435.5705756220709</v>
+        <v>8.711411512441419</v>
       </c>
       <c r="M18" t="n">
-        <v>435.5705756220709</v>
+        <v>8.711411512441419</v>
       </c>
       <c r="N18" t="n">
-        <v>435.5705756220709</v>
+        <v>8.711411512441419</v>
       </c>
       <c r="O18" t="n">
-        <v>435.5705756220709</v>
+        <v>8.711411512441419</v>
       </c>
       <c r="P18" t="n">
-        <v>435.5705756220709</v>
+        <v>8.711411512441419</v>
       </c>
       <c r="Q18" t="n">
-        <v>435.5705756220709</v>
+        <v>8.711411512441419</v>
       </c>
       <c r="R18" t="n">
-        <v>435.5705756220709</v>
+        <v>8.711411512441419</v>
       </c>
       <c r="S18" t="n">
-        <v>435.5705756220709</v>
+        <v>8.711411512441419</v>
       </c>
       <c r="T18" t="n">
-        <v>435.5705756220709</v>
+        <v>8.711411512441419</v>
       </c>
       <c r="U18" t="n">
-        <v>435.5705756220709</v>
+        <v>8.711411512441419</v>
       </c>
       <c r="V18" t="n">
-        <v>435.5705756220709</v>
+        <v>8.711411512441419</v>
       </c>
       <c r="W18" t="n">
-        <v>435.5705756220709</v>
+        <v>8.711411512441419</v>
       </c>
       <c r="X18" t="n">
-        <v>435.5705756220709</v>
+        <v>8.711411512441419</v>
       </c>
       <c r="Y18" t="n">
-        <v>435.5705756220709</v>
+        <v>8.711411512441419</v>
       </c>
     </row>
     <row r="19">
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>274.4149212485735</v>
+        <v>274.4149212485732</v>
       </c>
       <c r="C20" t="n">
-        <v>240.1499508770638</v>
+        <v>240.1499508770635</v>
       </c>
       <c r="D20" t="n">
-        <v>216.3701955806494</v>
+        <v>216.3701955806489</v>
       </c>
       <c r="E20" t="n">
-        <v>165.8093261421245</v>
+        <v>165.8093261421242</v>
       </c>
       <c r="F20" t="n">
         <v>90.82842869829324</v>
@@ -5750,34 +5750,34 @@
         <v>116.515128978904</v>
       </c>
       <c r="J20" t="n">
-        <v>116.515128978904</v>
+        <v>215.4788827354034</v>
       </c>
       <c r="K20" t="n">
-        <v>116.515128978904</v>
+        <v>215.4788827354034</v>
       </c>
       <c r="L20" t="n">
-        <v>116.515128978904</v>
+        <v>215.4788827354034</v>
       </c>
       <c r="M20" t="n">
-        <v>116.515128978904</v>
+        <v>215.4788827354034</v>
       </c>
       <c r="N20" t="n">
-        <v>116.515128978904</v>
+        <v>215.4788827354034</v>
       </c>
       <c r="O20" t="n">
-        <v>116.515128978904</v>
+        <v>215.4788827354034</v>
       </c>
       <c r="P20" t="n">
-        <v>224.3188464453665</v>
+        <v>215.4788827354034</v>
       </c>
       <c r="Q20" t="n">
-        <v>224.3188464453665</v>
+        <v>215.4788827354034</v>
       </c>
       <c r="R20" t="n">
         <v>323.282600201866</v>
       </c>
       <c r="S20" t="n">
-        <v>431.0863176683285</v>
+        <v>323.282600201866</v>
       </c>
       <c r="T20" t="n">
         <v>431.0863176683285</v>
@@ -5789,13 +5789,13 @@
         <v>435.5705756220709</v>
       </c>
       <c r="W20" t="n">
-        <v>417.9267958347918</v>
+        <v>417.9267958347916</v>
       </c>
       <c r="X20" t="n">
-        <v>379.746165410528</v>
+        <v>379.7461654105276</v>
       </c>
       <c r="Y20" t="n">
-        <v>325.5802091074089</v>
+        <v>325.5802091074086</v>
       </c>
     </row>
     <row r="21">
@@ -5966,16 +5966,16 @@
         <v>274.4149212485733</v>
       </c>
       <c r="C23" t="n">
-        <v>240.1499508770635</v>
+        <v>240.1499508770636</v>
       </c>
       <c r="D23" t="n">
-        <v>216.3701955806491</v>
+        <v>216.370195580649</v>
       </c>
       <c r="E23" t="n">
-        <v>165.8093261421245</v>
+        <v>165.8093261421243</v>
       </c>
       <c r="F23" t="n">
-        <v>90.82842869829324</v>
+        <v>90.82842869829321</v>
       </c>
       <c r="G23" t="n">
         <v>8.711411512441419</v>
@@ -5984,28 +5984,28 @@
         <v>8.711411512441419</v>
       </c>
       <c r="I23" t="n">
-        <v>116.515128978904</v>
+        <v>8.711411512441419</v>
       </c>
       <c r="J23" t="n">
-        <v>116.515128978904</v>
+        <v>8.711411512441419</v>
       </c>
       <c r="K23" t="n">
-        <v>116.515128978904</v>
+        <v>8.711411512441419</v>
       </c>
       <c r="L23" t="n">
-        <v>116.515128978904</v>
+        <v>8.711411512441419</v>
       </c>
       <c r="M23" t="n">
-        <v>116.515128978904</v>
+        <v>8.711411512441419</v>
       </c>
       <c r="N23" t="n">
-        <v>116.515128978904</v>
+        <v>8.711411512441419</v>
       </c>
       <c r="O23" t="n">
-        <v>116.515128978904</v>
+        <v>8.711411512441419</v>
       </c>
       <c r="P23" t="n">
-        <v>116.515128978904</v>
+        <v>8.711411512441419</v>
       </c>
       <c r="Q23" t="n">
         <v>116.515128978904</v>
@@ -6014,16 +6014,16 @@
         <v>224.3188464453665</v>
       </c>
       <c r="S23" t="n">
-        <v>332.1225639118291</v>
+        <v>246.9584022797587</v>
       </c>
       <c r="T23" t="n">
         <v>354.7621197462212</v>
       </c>
       <c r="U23" t="n">
-        <v>435.5705756220709</v>
+        <v>435.570575622071</v>
       </c>
       <c r="V23" t="n">
-        <v>435.5705756220709</v>
+        <v>435.570575622071</v>
       </c>
       <c r="W23" t="n">
         <v>417.9267958347916</v>
@@ -6206,55 +6206,55 @@
         <v>1003.789144136167</v>
       </c>
       <c r="D26" t="n">
-        <v>834.2230905776833</v>
+        <v>834.2230905776835</v>
       </c>
       <c r="E26" t="n">
-        <v>637.8759228770897</v>
+        <v>637.87592287709</v>
       </c>
       <c r="F26" t="n">
-        <v>417.1087271711897</v>
+        <v>417.1087271711901</v>
       </c>
       <c r="G26" t="n">
-        <v>189.2054117232694</v>
+        <v>189.2054117232693</v>
       </c>
       <c r="H26" t="n">
-        <v>43.41911346120057</v>
+        <v>43.41911346120055</v>
       </c>
       <c r="I26" t="n">
-        <v>43.41911346120057</v>
+        <v>46.03033693700412</v>
       </c>
       <c r="J26" t="n">
-        <v>84.45488269417388</v>
+        <v>87.06610616997742</v>
       </c>
       <c r="K26" t="n">
-        <v>455.0804524145842</v>
+        <v>457.6916758903877</v>
       </c>
       <c r="L26" t="n">
-        <v>884.2349257027829</v>
+        <v>845.8798763562227</v>
       </c>
       <c r="M26" t="n">
-        <v>1307.022251298195</v>
+        <v>1359.451556835107</v>
       </c>
       <c r="N26" t="n">
-        <v>1810.363503754408</v>
+        <v>1412.500415916741</v>
       </c>
       <c r="O26" t="n">
-        <v>1857.866833433242</v>
+        <v>1484.172840764475</v>
       </c>
       <c r="P26" t="n">
-        <v>2036.625711868274</v>
+        <v>1849.77871553389</v>
       </c>
       <c r="Q26" t="n">
-        <v>2093.686783353016</v>
+        <v>2093.686783353015</v>
       </c>
       <c r="R26" t="n">
-        <v>2170.955673060028</v>
+        <v>2170.955673060027</v>
       </c>
       <c r="S26" t="n">
-        <v>2165.072092504524</v>
+        <v>2165.072092504523</v>
       </c>
       <c r="T26" t="n">
-        <v>2132.689355308053</v>
+        <v>2132.689355308052</v>
       </c>
       <c r="U26" t="n">
         <v>2069.352251899416</v>
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>66.54770544134206</v>
+        <v>43.41911346120055</v>
       </c>
       <c r="C27" t="n">
-        <v>66.54770544134206</v>
+        <v>43.41911346120055</v>
       </c>
       <c r="D27" t="n">
-        <v>66.54770544134206</v>
+        <v>43.41911346120055</v>
       </c>
       <c r="E27" t="n">
-        <v>66.54770544134206</v>
+        <v>43.41911346120055</v>
       </c>
       <c r="F27" t="n">
-        <v>66.54770544134206</v>
+        <v>43.41911346120055</v>
       </c>
       <c r="G27" t="n">
-        <v>66.54770544134206</v>
+        <v>43.41911346120055</v>
       </c>
       <c r="H27" t="n">
-        <v>66.54770544134206</v>
+        <v>43.41911346120055</v>
       </c>
       <c r="I27" t="n">
-        <v>66.54770544134206</v>
+        <v>43.41911346120055</v>
       </c>
       <c r="J27" t="n">
-        <v>66.54770544134206</v>
+        <v>43.41911346120055</v>
       </c>
       <c r="K27" t="n">
-        <v>66.54770544134206</v>
+        <v>224.8100976910606</v>
       </c>
       <c r="L27" t="n">
-        <v>139.5336160389002</v>
+        <v>224.8100976910606</v>
       </c>
       <c r="M27" t="n">
-        <v>139.5336160389002</v>
+        <v>224.8100976910606</v>
       </c>
       <c r="N27" t="n">
-        <v>139.5336160389002</v>
+        <v>224.8100976910606</v>
       </c>
       <c r="O27" t="n">
-        <v>139.5336160389002</v>
+        <v>224.8100976910606</v>
       </c>
       <c r="P27" t="n">
-        <v>139.5336160389002</v>
+        <v>224.8100976910606</v>
       </c>
       <c r="Q27" t="n">
-        <v>224.8100976910609</v>
+        <v>224.8100976910606</v>
       </c>
       <c r="R27" t="n">
-        <v>224.8100976910609</v>
+        <v>224.8100976910606</v>
       </c>
       <c r="S27" t="n">
-        <v>224.8100976910609</v>
+        <v>224.8100976910606</v>
       </c>
       <c r="T27" t="n">
-        <v>216.1452475465153</v>
+        <v>216.145247546515</v>
       </c>
       <c r="U27" t="n">
-        <v>179.8771941580895</v>
+        <v>179.8771941580892</v>
       </c>
       <c r="V27" t="n">
-        <v>136.2666978874276</v>
+        <v>136.2666978874274</v>
       </c>
       <c r="W27" t="n">
-        <v>74.3929534244981</v>
+        <v>74.39295342449797</v>
       </c>
       <c r="X27" t="n">
-        <v>58.50680203381285</v>
+        <v>58.50680203381278</v>
       </c>
       <c r="Y27" t="n">
-        <v>43.41911346120057</v>
+        <v>43.41911346120055</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>43.41911346120057</v>
+        <v>43.41911346120055</v>
       </c>
       <c r="C28" t="n">
-        <v>64.60292239369312</v>
+        <v>43.41911346120055</v>
       </c>
       <c r="D28" t="n">
-        <v>64.60292239369312</v>
+        <v>43.41911346120055</v>
       </c>
       <c r="E28" t="n">
-        <v>64.60292239369312</v>
+        <v>43.41911346120055</v>
       </c>
       <c r="F28" t="n">
-        <v>64.60292239369312</v>
+        <v>43.41911346120055</v>
       </c>
       <c r="G28" t="n">
-        <v>64.60292239369312</v>
+        <v>43.41911346120055</v>
       </c>
       <c r="H28" t="n">
-        <v>64.60292239369312</v>
+        <v>43.41911346120055</v>
       </c>
       <c r="I28" t="n">
-        <v>64.60292239369312</v>
+        <v>43.41911346120055</v>
       </c>
       <c r="J28" t="n">
-        <v>64.60292239369312</v>
+        <v>43.41911346120055</v>
       </c>
       <c r="K28" t="n">
-        <v>64.60292239369312</v>
+        <v>43.41911346120055</v>
       </c>
       <c r="L28" t="n">
-        <v>141.0566331986886</v>
+        <v>43.41911346120055</v>
       </c>
       <c r="M28" t="n">
-        <v>225.2893745934084</v>
+        <v>43.41911346120055</v>
       </c>
       <c r="N28" t="n">
-        <v>225.2893745934084</v>
+        <v>189.8721667757245</v>
       </c>
       <c r="O28" t="n">
-        <v>290.6541644568144</v>
+        <v>442.0839529735135</v>
       </c>
       <c r="P28" t="n">
-        <v>290.6541644568144</v>
+        <v>442.0839529735135</v>
       </c>
       <c r="Q28" t="n">
-        <v>416.9874757420861</v>
+        <v>442.0839529735135</v>
       </c>
       <c r="R28" t="n">
-        <v>442.0839529735139</v>
+        <v>442.0839529735135</v>
       </c>
       <c r="S28" t="n">
-        <v>412.0389244862271</v>
+        <v>412.0389244862267</v>
       </c>
       <c r="T28" t="n">
-        <v>373.0013298664685</v>
+        <v>373.0013298664682</v>
       </c>
       <c r="U28" t="n">
-        <v>274.7126516709306</v>
+        <v>274.7126516709304</v>
       </c>
       <c r="V28" t="n">
-        <v>209.8621351706889</v>
+        <v>209.8621351706887</v>
       </c>
       <c r="W28" t="n">
-        <v>111.5204814780468</v>
+        <v>111.5204814780467</v>
       </c>
       <c r="X28" t="n">
-        <v>73.73662268955245</v>
+        <v>73.73662268955238</v>
       </c>
       <c r="Y28" t="n">
-        <v>43.41911346120057</v>
+        <v>43.41911346120055</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1183.840412769746</v>
+        <v>1183.840412769745</v>
       </c>
       <c r="C29" t="n">
         <v>1003.789144136167</v>
       </c>
       <c r="D29" t="n">
-        <v>834.2230905776839</v>
+        <v>834.2230905776836</v>
       </c>
       <c r="E29" t="n">
-        <v>637.8759228770903</v>
+        <v>637.87592287709</v>
       </c>
       <c r="F29" t="n">
-        <v>417.1087271711902</v>
+        <v>417.1087271711901</v>
       </c>
       <c r="G29" t="n">
-        <v>189.2054117232695</v>
+        <v>189.2054117232693</v>
       </c>
       <c r="H29" t="n">
-        <v>43.41911346120057</v>
+        <v>43.41911346120054</v>
       </c>
       <c r="I29" t="n">
-        <v>46.03033693700399</v>
+        <v>46.0303369370041</v>
       </c>
       <c r="J29" t="n">
-        <v>46.03033693700399</v>
+        <v>273.9131025043603</v>
       </c>
       <c r="K29" t="n">
-        <v>82.91578987414294</v>
+        <v>273.9131025043603</v>
       </c>
       <c r="L29" t="n">
-        <v>549.7254354301306</v>
+        <v>740.7227480603481</v>
       </c>
       <c r="M29" t="n">
-        <v>1063.297115909014</v>
+        <v>1254.294428539232</v>
       </c>
       <c r="N29" t="n">
-        <v>1485.953263027508</v>
+        <v>1254.294428539232</v>
       </c>
       <c r="O29" t="n">
-        <v>1925.528459334465</v>
+        <v>1507.340605756778</v>
       </c>
       <c r="P29" t="n">
-        <v>2104.287337769496</v>
+        <v>1849.778715533889</v>
       </c>
       <c r="Q29" t="n">
-        <v>2161.348409254239</v>
+        <v>2093.686783353015</v>
       </c>
       <c r="R29" t="n">
-        <v>2170.955673060028</v>
+        <v>2170.955673060027</v>
       </c>
       <c r="S29" t="n">
-        <v>2165.072092504524</v>
+        <v>2165.072092504523</v>
       </c>
       <c r="T29" t="n">
-        <v>2132.689355308053</v>
+        <v>2132.689355308052</v>
       </c>
       <c r="U29" t="n">
-        <v>2069.352251899418</v>
+        <v>2069.352251899416</v>
       </c>
       <c r="V29" t="n">
-        <v>1928.141260191519</v>
+        <v>1928.141260191518</v>
       </c>
       <c r="W29" t="n">
-        <v>1764.711182142171</v>
+        <v>1764.71118214217</v>
       </c>
       <c r="X29" t="n">
-        <v>1580.744253455838</v>
+        <v>1580.744253455837</v>
       </c>
       <c r="Y29" t="n">
-        <v>1380.79199889065</v>
+        <v>1380.791998890649</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>43.41911346120057</v>
+        <v>66.54770544134209</v>
       </c>
       <c r="C30" t="n">
-        <v>43.41911346120057</v>
+        <v>84.07937368759804</v>
       </c>
       <c r="D30" t="n">
-        <v>43.41911346120057</v>
+        <v>115.3941366173674</v>
       </c>
       <c r="E30" t="n">
-        <v>43.41911346120057</v>
+        <v>115.3941366173674</v>
       </c>
       <c r="F30" t="n">
-        <v>43.41911346120057</v>
+        <v>115.3941366173674</v>
       </c>
       <c r="G30" t="n">
-        <v>43.41911346120057</v>
+        <v>115.3941366173674</v>
       </c>
       <c r="H30" t="n">
-        <v>43.41911346120057</v>
+        <v>115.3941366173674</v>
       </c>
       <c r="I30" t="n">
-        <v>43.41911346120057</v>
+        <v>115.3941366173674</v>
       </c>
       <c r="J30" t="n">
-        <v>113.0760101974475</v>
+        <v>115.3941366173674</v>
       </c>
       <c r="K30" t="n">
-        <v>113.0760101974475</v>
+        <v>115.3941366173674</v>
       </c>
       <c r="L30" t="n">
-        <v>113.0760101974475</v>
+        <v>115.3941366173674</v>
       </c>
       <c r="M30" t="n">
-        <v>113.0760101974475</v>
+        <v>115.3941366173674</v>
       </c>
       <c r="N30" t="n">
-        <v>113.0760101974475</v>
+        <v>115.3941366173674</v>
       </c>
       <c r="O30" t="n">
-        <v>224.8100976910614</v>
+        <v>115.3941366173674</v>
       </c>
       <c r="P30" t="n">
-        <v>224.8100976910614</v>
+        <v>115.3941366173674</v>
       </c>
       <c r="Q30" t="n">
-        <v>224.8100976910614</v>
+        <v>115.3941366173674</v>
       </c>
       <c r="R30" t="n">
-        <v>224.8100976910614</v>
+        <v>224.8100976910605</v>
       </c>
       <c r="S30" t="n">
-        <v>224.8100976910614</v>
+        <v>224.8100976910605</v>
       </c>
       <c r="T30" t="n">
-        <v>216.1452475465157</v>
+        <v>216.145247546515</v>
       </c>
       <c r="U30" t="n">
-        <v>179.8771941580898</v>
+        <v>179.8771941580892</v>
       </c>
       <c r="V30" t="n">
-        <v>136.2666978874278</v>
+        <v>136.2666978874274</v>
       </c>
       <c r="W30" t="n">
-        <v>74.39295342449827</v>
+        <v>74.39295342449796</v>
       </c>
       <c r="X30" t="n">
-        <v>58.50680203381293</v>
+        <v>58.50680203381276</v>
       </c>
       <c r="Y30" t="n">
-        <v>43.41911346120057</v>
+        <v>43.41911346120054</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>43.41911346120057</v>
+        <v>51.98325521980649</v>
       </c>
       <c r="C31" t="n">
-        <v>64.60292239369304</v>
+        <v>73.1670641522991</v>
       </c>
       <c r="D31" t="n">
-        <v>103.9344078787016</v>
+        <v>73.1670641522991</v>
       </c>
       <c r="E31" t="n">
-        <v>103.9344078787016</v>
+        <v>114.5091825552148</v>
       </c>
       <c r="F31" t="n">
-        <v>146.083973017378</v>
+        <v>114.5091825552148</v>
       </c>
       <c r="G31" t="n">
-        <v>166.9406036218948</v>
+        <v>114.5091825552148</v>
       </c>
       <c r="H31" t="n">
-        <v>195.7287787592709</v>
+        <v>114.5091825552148</v>
       </c>
       <c r="I31" t="n">
-        <v>195.7287787592709</v>
+        <v>114.5091825552148</v>
       </c>
       <c r="J31" t="n">
-        <v>195.7287787592709</v>
+        <v>222.5285681888954</v>
       </c>
       <c r="K31" t="n">
-        <v>195.7287787592709</v>
+        <v>222.5285681888954</v>
       </c>
       <c r="L31" t="n">
-        <v>285.1350035234545</v>
+        <v>222.5285681888954</v>
       </c>
       <c r="M31" t="n">
-        <v>285.1350035234545</v>
+        <v>222.5285681888954</v>
       </c>
       <c r="N31" t="n">
-        <v>285.1350035234545</v>
+        <v>222.5285681888954</v>
       </c>
       <c r="O31" t="n">
-        <v>369.4790900309308</v>
+        <v>222.5285681888954</v>
       </c>
       <c r="P31" t="n">
-        <v>442.0839529735145</v>
+        <v>442.0839529735135</v>
       </c>
       <c r="Q31" t="n">
-        <v>442.0839529735145</v>
+        <v>442.0839529735135</v>
       </c>
       <c r="R31" t="n">
-        <v>442.0839529735145</v>
+        <v>442.0839529735135</v>
       </c>
       <c r="S31" t="n">
-        <v>412.0389244862276</v>
+        <v>412.0389244862267</v>
       </c>
       <c r="T31" t="n">
-        <v>373.0013298664689</v>
+        <v>373.0013298664682</v>
       </c>
       <c r="U31" t="n">
-        <v>274.7126516709309</v>
+        <v>274.7126516709303</v>
       </c>
       <c r="V31" t="n">
-        <v>209.8621351706891</v>
+        <v>209.8621351706887</v>
       </c>
       <c r="W31" t="n">
-        <v>111.5204814780469</v>
+        <v>111.5204814780466</v>
       </c>
       <c r="X31" t="n">
-        <v>73.73662268955253</v>
+        <v>73.73662268955236</v>
       </c>
       <c r="Y31" t="n">
-        <v>43.41911346120057</v>
+        <v>43.41911346120054</v>
       </c>
     </row>
     <row r="32">
@@ -6677,73 +6677,73 @@
         <v>1183.840412769745</v>
       </c>
       <c r="C32" t="n">
-        <v>1003.789144136167</v>
+        <v>1003.789144136166</v>
       </c>
       <c r="D32" t="n">
-        <v>834.2230905776834</v>
+        <v>834.223090577683</v>
       </c>
       <c r="E32" t="n">
-        <v>637.8759228770898</v>
+        <v>637.8759228770895</v>
       </c>
       <c r="F32" t="n">
-        <v>417.1087271711897</v>
+        <v>417.1087271711895</v>
       </c>
       <c r="G32" t="n">
-        <v>189.2054117232695</v>
+        <v>189.2054117232693</v>
       </c>
       <c r="H32" t="n">
-        <v>43.41911346120057</v>
+        <v>43.41911346120054</v>
       </c>
       <c r="I32" t="n">
-        <v>46.03033693700402</v>
+        <v>46.0303369370041</v>
       </c>
       <c r="J32" t="n">
-        <v>273.9131025043602</v>
+        <v>273.9131025043603</v>
       </c>
       <c r="K32" t="n">
-        <v>457.6916758903876</v>
+        <v>644.5386722247706</v>
       </c>
       <c r="L32" t="n">
-        <v>737.6543251119924</v>
+        <v>980.8315883082619</v>
       </c>
       <c r="M32" t="n">
-        <v>1251.226005590876</v>
+        <v>980.8315883082619</v>
       </c>
       <c r="N32" t="n">
-        <v>1754.567258047089</v>
+        <v>1484.172840764475</v>
       </c>
       <c r="O32" t="n">
-        <v>1917.346317233518</v>
+        <v>1484.172840764475</v>
       </c>
       <c r="P32" t="n">
-        <v>2136.039855818551</v>
+        <v>1849.778715533889</v>
       </c>
       <c r="Q32" t="n">
-        <v>2161.348409254239</v>
+        <v>2093.686783353015</v>
       </c>
       <c r="R32" t="n">
-        <v>2170.955673060028</v>
+        <v>2170.955673060027</v>
       </c>
       <c r="S32" t="n">
-        <v>2165.072092504524</v>
+        <v>2165.072092504523</v>
       </c>
       <c r="T32" t="n">
-        <v>2132.689355308053</v>
+        <v>2132.689355308052</v>
       </c>
       <c r="U32" t="n">
-        <v>2069.352251899417</v>
+        <v>2069.352251899416</v>
       </c>
       <c r="V32" t="n">
-        <v>1928.141260191519</v>
+        <v>1928.141260191518</v>
       </c>
       <c r="W32" t="n">
-        <v>1764.71118214217</v>
+        <v>1764.711182142169</v>
       </c>
       <c r="X32" t="n">
-        <v>1580.744253455838</v>
+        <v>1580.744253455837</v>
       </c>
       <c r="Y32" t="n">
-        <v>1380.79199889065</v>
+        <v>1380.791998890649</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>43.41911346120057</v>
+        <v>43.41911346120054</v>
       </c>
       <c r="C33" t="n">
-        <v>43.41911346120057</v>
+        <v>43.41911346120054</v>
       </c>
       <c r="D33" t="n">
-        <v>43.41911346120057</v>
+        <v>85.61481045668435</v>
       </c>
       <c r="E33" t="n">
-        <v>43.41911346120057</v>
+        <v>85.61481045668435</v>
       </c>
       <c r="F33" t="n">
-        <v>43.41911346120057</v>
+        <v>85.61481045668435</v>
       </c>
       <c r="G33" t="n">
-        <v>43.41911346120057</v>
+        <v>85.61481045668435</v>
       </c>
       <c r="H33" t="n">
-        <v>113.0760101974473</v>
+        <v>85.61481045668435</v>
       </c>
       <c r="I33" t="n">
-        <v>113.0760101974473</v>
+        <v>85.61481045668435</v>
       </c>
       <c r="J33" t="n">
-        <v>113.0760101974473</v>
+        <v>85.61481045668435</v>
       </c>
       <c r="K33" t="n">
-        <v>113.0760101974473</v>
+        <v>85.61481045668435</v>
       </c>
       <c r="L33" t="n">
-        <v>113.0760101974473</v>
+        <v>85.61481045668435</v>
       </c>
       <c r="M33" t="n">
-        <v>113.0760101974473</v>
+        <v>85.61481045668435</v>
       </c>
       <c r="N33" t="n">
-        <v>113.0760101974473</v>
+        <v>224.8100976910605</v>
       </c>
       <c r="O33" t="n">
-        <v>224.8100976910613</v>
+        <v>224.8100976910605</v>
       </c>
       <c r="P33" t="n">
-        <v>224.8100976910613</v>
+        <v>224.8100976910605</v>
       </c>
       <c r="Q33" t="n">
-        <v>224.8100976910613</v>
+        <v>224.8100976910605</v>
       </c>
       <c r="R33" t="n">
-        <v>224.8100976910613</v>
+        <v>224.8100976910605</v>
       </c>
       <c r="S33" t="n">
-        <v>224.8100976910613</v>
+        <v>224.8100976910605</v>
       </c>
       <c r="T33" t="n">
-        <v>216.1452475465156</v>
+        <v>216.145247546515</v>
       </c>
       <c r="U33" t="n">
-        <v>179.8771941580897</v>
+        <v>179.8771941580892</v>
       </c>
       <c r="V33" t="n">
-        <v>136.2666978874277</v>
+        <v>136.2666978874274</v>
       </c>
       <c r="W33" t="n">
-        <v>74.39295342449822</v>
+        <v>74.39295342449796</v>
       </c>
       <c r="X33" t="n">
-        <v>58.5068020338129</v>
+        <v>58.50680203381276</v>
       </c>
       <c r="Y33" t="n">
-        <v>43.41911346120057</v>
+        <v>43.41911346120054</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>51.98325521980641</v>
+        <v>46.6849570025127</v>
       </c>
       <c r="C34" t="n">
-        <v>51.98325521980641</v>
+        <v>67.86876593500531</v>
       </c>
       <c r="D34" t="n">
-        <v>51.98325521980641</v>
+        <v>67.86876593500531</v>
       </c>
       <c r="E34" t="n">
-        <v>51.98325521980641</v>
+        <v>67.86876593500531</v>
       </c>
       <c r="F34" t="n">
-        <v>51.98325521980641</v>
+        <v>110.0183310736818</v>
       </c>
       <c r="G34" t="n">
-        <v>51.98325521980641</v>
+        <v>110.0183310736818</v>
       </c>
       <c r="H34" t="n">
-        <v>80.77143035718254</v>
+        <v>138.806506211058</v>
       </c>
       <c r="I34" t="n">
-        <v>122.0233084947981</v>
+        <v>138.806506211058</v>
       </c>
       <c r="J34" t="n">
-        <v>122.0233084947981</v>
+        <v>253.2801869504692</v>
       </c>
       <c r="K34" t="n">
-        <v>122.0233084947981</v>
+        <v>264.2515489100515</v>
       </c>
       <c r="L34" t="n">
-        <v>211.4295332589818</v>
+        <v>264.2515489100515</v>
       </c>
       <c r="M34" t="n">
-        <v>235.3287771946572</v>
+        <v>264.2515489100515</v>
       </c>
       <c r="N34" t="n">
-        <v>332.6433892346103</v>
+        <v>351.6226858786795</v>
       </c>
       <c r="O34" t="n">
-        <v>416.9874757420865</v>
+        <v>416.9874757420856</v>
       </c>
       <c r="P34" t="n">
-        <v>416.9874757420865</v>
+        <v>416.9874757420856</v>
       </c>
       <c r="Q34" t="n">
-        <v>416.9874757420865</v>
+        <v>416.9874757420856</v>
       </c>
       <c r="R34" t="n">
-        <v>442.0839529735143</v>
+        <v>442.0839529735135</v>
       </c>
       <c r="S34" t="n">
-        <v>412.0389244862274</v>
+        <v>412.0389244862267</v>
       </c>
       <c r="T34" t="n">
-        <v>373.0013298664687</v>
+        <v>373.0013298664682</v>
       </c>
       <c r="U34" t="n">
-        <v>274.7126516709308</v>
+        <v>274.7126516709303</v>
       </c>
       <c r="V34" t="n">
-        <v>209.862135170689</v>
+        <v>209.8621351706887</v>
       </c>
       <c r="W34" t="n">
-        <v>111.5204814780469</v>
+        <v>111.5204814780466</v>
       </c>
       <c r="X34" t="n">
-        <v>73.7366226895525</v>
+        <v>73.73662268955236</v>
       </c>
       <c r="Y34" t="n">
-        <v>43.41911346120057</v>
+        <v>43.41911346120054</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>980.8325780784771</v>
+        <v>980.8325780784764</v>
       </c>
       <c r="C35" t="n">
-        <v>833.1640466413699</v>
+        <v>833.1640466413695</v>
       </c>
       <c r="D35" t="n">
-        <v>695.9807302793577</v>
+        <v>695.9807302793574</v>
       </c>
       <c r="E35" t="n">
-        <v>532.0162997752352</v>
+        <v>532.0162997752351</v>
       </c>
       <c r="F35" t="n">
         <v>343.6318412658064</v>
       </c>
       <c r="G35" t="n">
-        <v>148.1112630143568</v>
+        <v>148.1112630143567</v>
       </c>
       <c r="H35" t="n">
-        <v>34.70770194875914</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="I35" t="n">
-        <v>69.05724615082404</v>
+        <v>69.05724615082411</v>
       </c>
       <c r="J35" t="n">
-        <v>154.5764574632744</v>
+        <v>154.5764574632746</v>
       </c>
       <c r="K35" t="n">
-        <v>556.9403479099461</v>
+        <v>223.2002311266751</v>
       </c>
       <c r="L35" t="n">
-        <v>640.6873256092891</v>
+        <v>524.9603397958438</v>
       </c>
       <c r="M35" t="n">
-        <v>1070.195137225184</v>
+        <v>923.5124748641234</v>
       </c>
       <c r="N35" t="n">
-        <v>1154.982317033079</v>
+        <v>1353.020286480018</v>
       </c>
       <c r="O35" t="n">
-        <v>1203.061868085196</v>
+        <v>1432.261936885113</v>
       </c>
       <c r="P35" t="n">
-        <v>1600.406063580872</v>
+        <v>1611.020815320144</v>
       </c>
       <c r="Q35" t="n">
-        <v>1600.406063580872</v>
+        <v>1668.067689482094</v>
       </c>
       <c r="R35" t="n">
-        <v>1709.413274014145</v>
+        <v>1709.413274014144</v>
       </c>
       <c r="S35" t="n">
-        <v>1735.385097437957</v>
+        <v>1735.385097437956</v>
       </c>
       <c r="T35" t="n">
-        <v>1735.385097437957</v>
+        <v>1735.385097437956</v>
       </c>
       <c r="U35" t="n">
-        <v>1704.430731225793</v>
+        <v>1704.430731225792</v>
       </c>
       <c r="V35" t="n">
-        <v>1595.602476714365</v>
+        <v>1595.602476714364</v>
       </c>
       <c r="W35" t="n">
         <v>1464.555135861488</v>
       </c>
       <c r="X35" t="n">
-        <v>1312.970944371627</v>
+        <v>1312.970944371626</v>
       </c>
       <c r="Y35" t="n">
-        <v>1145.40142700291</v>
+        <v>1145.401427002909</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>34.70770194875914</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="C36" t="n">
-        <v>34.70770194875914</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="D36" t="n">
-        <v>34.70770194875914</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="E36" t="n">
-        <v>34.70770194875914</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="F36" t="n">
-        <v>34.70770194875914</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="G36" t="n">
-        <v>79.31178448136284</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="H36" t="n">
-        <v>79.31178448136284</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="I36" t="n">
-        <v>79.31178448136284</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="J36" t="n">
-        <v>79.31178448136284</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="K36" t="n">
-        <v>79.31178448136284</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="L36" t="n">
-        <v>79.31178448136284</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="M36" t="n">
-        <v>79.31178448136284</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="N36" t="n">
-        <v>79.31178448136284</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="O36" t="n">
-        <v>79.31178448136284</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="P36" t="n">
-        <v>79.31178448136284</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="Q36" t="n">
-        <v>79.31178448136284</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="R36" t="n">
-        <v>79.31178448136284</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="S36" t="n">
-        <v>79.31178448136284</v>
+        <v>56.06588338177025</v>
       </c>
       <c r="T36" t="n">
-        <v>79.31178448136284</v>
+        <v>79.31178448136257</v>
       </c>
       <c r="U36" t="n">
-        <v>75.42646828940816</v>
+        <v>75.42646828940798</v>
       </c>
       <c r="V36" t="n">
-        <v>64.19870921521745</v>
+        <v>64.19870921521735</v>
       </c>
       <c r="W36" t="n">
-        <v>34.70770194875914</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="X36" t="n">
-        <v>34.70770194875914</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="Y36" t="n">
-        <v>34.70770194875914</v>
+        <v>34.70770194875913</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>77.03429436518016</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="C37" t="n">
-        <v>77.03429436518016</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="D37" t="n">
-        <v>77.03429436518016</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="E37" t="n">
-        <v>77.03429436518016</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="F37" t="n">
-        <v>77.03429436518016</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="G37" t="n">
-        <v>129.6292456959584</v>
+        <v>87.30265327953751</v>
       </c>
       <c r="H37" t="n">
-        <v>129.6292456959584</v>
+        <v>147.8291491431752</v>
       </c>
       <c r="I37" t="n">
-        <v>129.6292456959584</v>
+        <v>147.8291491431752</v>
       </c>
       <c r="J37" t="n">
-        <v>129.6292456959584</v>
+        <v>147.8291491431752</v>
       </c>
       <c r="K37" t="n">
-        <v>129.6292456959584</v>
+        <v>147.8291491431752</v>
       </c>
       <c r="L37" t="n">
-        <v>211.0963177630779</v>
+        <v>147.8291491431752</v>
       </c>
       <c r="M37" t="n">
-        <v>211.0963177630779</v>
+        <v>147.8291491431752</v>
       </c>
       <c r="N37" t="n">
-        <v>211.0963177630779</v>
+        <v>147.8291491431752</v>
       </c>
       <c r="O37" t="n">
-        <v>211.0963177630779</v>
+        <v>151.9703314995166</v>
       </c>
       <c r="P37" t="n">
-        <v>211.0963177630779</v>
+        <v>151.9703314995166</v>
       </c>
       <c r="Q37" t="n">
-        <v>211.0963177630779</v>
+        <v>151.9703314995166</v>
       </c>
       <c r="R37" t="n">
-        <v>211.0963177630779</v>
+        <v>208.8051294572059</v>
       </c>
       <c r="S37" t="n">
-        <v>211.0963177630779</v>
+        <v>211.0963177630775</v>
       </c>
       <c r="T37" t="n">
-        <v>204.4414603397905</v>
+        <v>204.4414603397901</v>
       </c>
       <c r="U37" t="n">
-        <v>138.5355193407238</v>
+        <v>138.5355193407235</v>
       </c>
       <c r="V37" t="n">
-        <v>106.0677400369532</v>
+        <v>106.0677400369531</v>
       </c>
       <c r="W37" t="n">
-        <v>40.10882354078231</v>
+        <v>40.10882354078221</v>
       </c>
       <c r="X37" t="n">
-        <v>34.70770194875914</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="Y37" t="n">
-        <v>36.73183188031287</v>
+        <v>34.70770194875913</v>
       </c>
     </row>
     <row r="38">
@@ -7148,52 +7148,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>980.8325780784762</v>
+        <v>980.8325780784766</v>
       </c>
       <c r="C38" t="n">
-        <v>833.1640466413688</v>
+        <v>833.1640466413693</v>
       </c>
       <c r="D38" t="n">
-        <v>695.9807302793566</v>
+        <v>695.9807302793572</v>
       </c>
       <c r="E38" t="n">
-        <v>532.0162997752343</v>
+        <v>532.016299775235</v>
       </c>
       <c r="F38" t="n">
-        <v>343.6318412658055</v>
+        <v>343.6318412658062</v>
       </c>
       <c r="G38" t="n">
-        <v>148.1112630143568</v>
+        <v>148.1112630143567</v>
       </c>
       <c r="H38" t="n">
-        <v>34.70770194875913</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="I38" t="n">
-        <v>69.05724615082403</v>
+        <v>69.05724615082413</v>
       </c>
       <c r="J38" t="n">
-        <v>154.5764574632744</v>
+        <v>328.6783324444418</v>
       </c>
       <c r="K38" t="n">
-        <v>478.1730985331912</v>
+        <v>397.3021061078423</v>
       </c>
       <c r="L38" t="n">
-        <v>907.6809101490853</v>
+        <v>704.9271578034784</v>
       </c>
       <c r="M38" t="n">
-        <v>1234.405594293586</v>
+        <v>704.9271578034784</v>
       </c>
       <c r="N38" t="n">
-        <v>1353.020286480018</v>
+        <v>1134.434969419372</v>
       </c>
       <c r="O38" t="n">
-        <v>1432.261936885113</v>
+        <v>1213.676619824467</v>
       </c>
       <c r="P38" t="n">
         <v>1611.020815320144</v>
       </c>
       <c r="Q38" t="n">
-        <v>1668.067689482094</v>
+        <v>1668.067689482093</v>
       </c>
       <c r="R38" t="n">
         <v>1709.413274014144</v>
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>34.70770194875913</v>
+        <v>79.31178448136247</v>
       </c>
       <c r="C39" t="n">
-        <v>34.70770194875913</v>
+        <v>79.31178448136247</v>
       </c>
       <c r="D39" t="n">
-        <v>34.70770194875913</v>
+        <v>79.31178448136247</v>
       </c>
       <c r="E39" t="n">
-        <v>34.70770194875913</v>
+        <v>79.31178448136247</v>
       </c>
       <c r="F39" t="n">
-        <v>34.70770194875913</v>
+        <v>79.31178448136247</v>
       </c>
       <c r="G39" t="n">
-        <v>34.70770194875913</v>
+        <v>79.31178448136247</v>
       </c>
       <c r="H39" t="n">
-        <v>34.70770194875913</v>
+        <v>79.31178448136247</v>
       </c>
       <c r="I39" t="n">
-        <v>34.70770194875913</v>
+        <v>79.31178448136247</v>
       </c>
       <c r="J39" t="n">
-        <v>34.70770194875913</v>
+        <v>79.31178448136247</v>
       </c>
       <c r="K39" t="n">
-        <v>34.70770194875913</v>
+        <v>79.31178448136247</v>
       </c>
       <c r="L39" t="n">
-        <v>34.70770194875913</v>
+        <v>79.31178448136247</v>
       </c>
       <c r="M39" t="n">
-        <v>79.31178448136282</v>
+        <v>79.31178448136247</v>
       </c>
       <c r="N39" t="n">
-        <v>79.31178448136282</v>
+        <v>79.31178448136247</v>
       </c>
       <c r="O39" t="n">
-        <v>79.31178448136282</v>
+        <v>79.31178448136247</v>
       </c>
       <c r="P39" t="n">
-        <v>79.31178448136282</v>
+        <v>79.31178448136247</v>
       </c>
       <c r="Q39" t="n">
-        <v>79.31178448136282</v>
+        <v>79.31178448136247</v>
       </c>
       <c r="R39" t="n">
-        <v>79.31178448136282</v>
+        <v>79.31178448136247</v>
       </c>
       <c r="S39" t="n">
-        <v>79.31178448136282</v>
+        <v>79.31178448136247</v>
       </c>
       <c r="T39" t="n">
-        <v>79.31178448136282</v>
+        <v>79.31178448136247</v>
       </c>
       <c r="U39" t="n">
-        <v>75.42646828940815</v>
+        <v>75.42646828940791</v>
       </c>
       <c r="V39" t="n">
-        <v>64.19870921521743</v>
+        <v>64.19870921521731</v>
       </c>
       <c r="W39" t="n">
-        <v>34.70770194875913</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="X39" t="n">
-        <v>34.70770194875913</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="Y39" t="n">
-        <v>34.70770194875913</v>
+        <v>34.70770194875912</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34.70770194875913</v>
+        <v>77.03429436518036</v>
       </c>
       <c r="C40" t="n">
-        <v>34.70770194875913</v>
+        <v>77.03429436518036</v>
       </c>
       <c r="D40" t="n">
-        <v>34.70770194875913</v>
+        <v>77.03429436518036</v>
       </c>
       <c r="E40" t="n">
-        <v>34.70770194875913</v>
+        <v>77.03429436518036</v>
       </c>
       <c r="F40" t="n">
-        <v>34.70770194875913</v>
+        <v>77.03429436518036</v>
       </c>
       <c r="G40" t="n">
-        <v>34.70770194875913</v>
+        <v>77.03429436518036</v>
       </c>
       <c r="H40" t="n">
-        <v>34.70770194875913</v>
+        <v>137.560790228818</v>
       </c>
       <c r="I40" t="n">
-        <v>34.70770194875913</v>
+        <v>208.8051294572057</v>
       </c>
       <c r="J40" t="n">
-        <v>95.01391052934017</v>
+        <v>208.8051294572057</v>
       </c>
       <c r="K40" t="n">
-        <v>95.01391052934017</v>
+        <v>208.8051294572057</v>
       </c>
       <c r="L40" t="n">
-        <v>95.01391052934017</v>
+        <v>208.8051294572057</v>
       </c>
       <c r="M40" t="n">
-        <v>95.01391052934017</v>
+        <v>208.8051294572057</v>
       </c>
       <c r="N40" t="n">
-        <v>95.01391052934017</v>
+        <v>208.8051294572057</v>
       </c>
       <c r="O40" t="n">
-        <v>211.0963177630779</v>
+        <v>208.8051294572057</v>
       </c>
       <c r="P40" t="n">
-        <v>211.0963177630779</v>
+        <v>208.8051294572057</v>
       </c>
       <c r="Q40" t="n">
-        <v>211.0963177630779</v>
+        <v>208.8051294572057</v>
       </c>
       <c r="R40" t="n">
-        <v>211.0963177630779</v>
+        <v>208.8051294572057</v>
       </c>
       <c r="S40" t="n">
-        <v>211.0963177630779</v>
+        <v>211.0963177630773</v>
       </c>
       <c r="T40" t="n">
-        <v>204.4414603397905</v>
+        <v>204.44146033979</v>
       </c>
       <c r="U40" t="n">
-        <v>138.5355193407238</v>
+        <v>138.5355193407234</v>
       </c>
       <c r="V40" t="n">
-        <v>106.0677400369532</v>
+        <v>106.067740036953</v>
       </c>
       <c r="W40" t="n">
-        <v>40.1088235407823</v>
+        <v>40.10882354078217</v>
       </c>
       <c r="X40" t="n">
-        <v>34.70770194875913</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="Y40" t="n">
-        <v>34.70770194875913</v>
+        <v>36.73183188031295</v>
       </c>
     </row>
     <row r="41">
@@ -7385,52 +7385,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>980.8325780784764</v>
+        <v>980.8325780784769</v>
       </c>
       <c r="C41" t="n">
-        <v>833.1640466413692</v>
+        <v>833.1640466413695</v>
       </c>
       <c r="D41" t="n">
-        <v>695.980730279357</v>
+        <v>695.9807302793574</v>
       </c>
       <c r="E41" t="n">
-        <v>532.0162997752345</v>
+        <v>532.0162997752352</v>
       </c>
       <c r="F41" t="n">
-        <v>343.6318412658059</v>
+        <v>343.6318412658065</v>
       </c>
       <c r="G41" t="n">
-        <v>148.1112630143568</v>
+        <v>148.1112630143566</v>
       </c>
       <c r="H41" t="n">
-        <v>34.70770194875913</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="I41" t="n">
-        <v>69.05724615082408</v>
+        <v>69.05724615082416</v>
       </c>
       <c r="J41" t="n">
-        <v>69.05724615082408</v>
+        <v>154.5764574632747</v>
       </c>
       <c r="K41" t="n">
-        <v>137.6810198142246</v>
+        <v>223.2002311266753</v>
       </c>
       <c r="L41" t="n">
-        <v>476.9316406659491</v>
+        <v>223.2002311266753</v>
       </c>
       <c r="M41" t="n">
-        <v>559.422507786874</v>
+        <v>354.6609965926793</v>
       </c>
       <c r="N41" t="n">
-        <v>988.9303194027682</v>
+        <v>784.1688082085734</v>
       </c>
       <c r="O41" t="n">
-        <v>1241.658519375341</v>
+        <v>1213.676619824467</v>
       </c>
       <c r="P41" t="n">
-        <v>1639.002714871018</v>
+        <v>1611.020815320144</v>
       </c>
       <c r="Q41" t="n">
-        <v>1668.067689482094</v>
+        <v>1668.067689482093</v>
       </c>
       <c r="R41" t="n">
         <v>1709.413274014144</v>
@@ -7454,7 +7454,7 @@
         <v>1312.970944371626</v>
       </c>
       <c r="Y41" t="n">
-        <v>1145.401427002909</v>
+        <v>1145.40142700291</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>34.70770194875913</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="C42" t="n">
-        <v>34.70770194875913</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="D42" t="n">
-        <v>34.70770194875913</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="E42" t="n">
-        <v>34.70770194875913</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="F42" t="n">
-        <v>34.70770194875913</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="G42" t="n">
-        <v>34.70770194875913</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="H42" t="n">
-        <v>34.70770194875913</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="I42" t="n">
-        <v>79.31178448136265</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="J42" t="n">
-        <v>79.31178448136265</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="K42" t="n">
-        <v>79.31178448136265</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="L42" t="n">
-        <v>79.31178448136265</v>
+        <v>79.31178448136238</v>
       </c>
       <c r="M42" t="n">
-        <v>79.31178448136265</v>
+        <v>79.31178448136238</v>
       </c>
       <c r="N42" t="n">
-        <v>79.31178448136265</v>
+        <v>79.31178448136238</v>
       </c>
       <c r="O42" t="n">
-        <v>79.31178448136265</v>
+        <v>79.31178448136238</v>
       </c>
       <c r="P42" t="n">
-        <v>79.31178448136265</v>
+        <v>79.31178448136238</v>
       </c>
       <c r="Q42" t="n">
-        <v>79.31178448136265</v>
+        <v>79.31178448136238</v>
       </c>
       <c r="R42" t="n">
-        <v>79.31178448136265</v>
+        <v>79.31178448136238</v>
       </c>
       <c r="S42" t="n">
-        <v>79.31178448136265</v>
+        <v>79.31178448136238</v>
       </c>
       <c r="T42" t="n">
-        <v>79.31178448136265</v>
+        <v>79.31178448136238</v>
       </c>
       <c r="U42" t="n">
-        <v>75.42646828940804</v>
+        <v>75.42646828940785</v>
       </c>
       <c r="V42" t="n">
-        <v>64.19870921521738</v>
+        <v>64.19870921521728</v>
       </c>
       <c r="W42" t="n">
-        <v>34.70770194875913</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="X42" t="n">
-        <v>34.70770194875913</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="Y42" t="n">
-        <v>34.70770194875913</v>
+        <v>34.70770194875912</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.70770194875913</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="C43" t="n">
-        <v>34.70770194875913</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="D43" t="n">
-        <v>34.70770194875913</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="E43" t="n">
-        <v>107.7881410779362</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="F43" t="n">
-        <v>158.5013664322993</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="G43" t="n">
-        <v>211.0963177630776</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="H43" t="n">
-        <v>211.0963177630776</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="I43" t="n">
-        <v>211.0963177630776</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="J43" t="n">
-        <v>211.0963177630776</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="K43" t="n">
-        <v>211.0963177630776</v>
+        <v>89.9517722726319</v>
       </c>
       <c r="L43" t="n">
-        <v>211.0963177630776</v>
+        <v>211.0963177630772</v>
       </c>
       <c r="M43" t="n">
-        <v>211.0963177630776</v>
+        <v>211.0963177630772</v>
       </c>
       <c r="N43" t="n">
-        <v>211.0963177630776</v>
+        <v>211.0963177630772</v>
       </c>
       <c r="O43" t="n">
-        <v>211.0963177630776</v>
+        <v>211.0963177630772</v>
       </c>
       <c r="P43" t="n">
-        <v>211.0963177630776</v>
+        <v>211.0963177630772</v>
       </c>
       <c r="Q43" t="n">
-        <v>211.0963177630776</v>
+        <v>211.0963177630772</v>
       </c>
       <c r="R43" t="n">
-        <v>211.0963177630776</v>
+        <v>211.0963177630772</v>
       </c>
       <c r="S43" t="n">
-        <v>211.0963177630776</v>
+        <v>211.0963177630772</v>
       </c>
       <c r="T43" t="n">
-        <v>204.4414603397902</v>
+        <v>204.4414603397899</v>
       </c>
       <c r="U43" t="n">
-        <v>138.5355193407236</v>
+        <v>138.5355193407233</v>
       </c>
       <c r="V43" t="n">
-        <v>106.0677400369531</v>
+        <v>106.0677400369529</v>
       </c>
       <c r="W43" t="n">
-        <v>40.10882354078224</v>
+        <v>40.10882354078214</v>
       </c>
       <c r="X43" t="n">
-        <v>34.70770194875913</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="Y43" t="n">
-        <v>34.70770194875913</v>
+        <v>34.70770194875912</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>980.8325780784769</v>
+        <v>980.832578078477</v>
       </c>
       <c r="C44" t="n">
         <v>833.1640466413696</v>
@@ -7634,40 +7634,40 @@
         <v>532.0162997752352</v>
       </c>
       <c r="F44" t="n">
-        <v>343.6318412658064</v>
+        <v>343.6318412658065</v>
       </c>
       <c r="G44" t="n">
         <v>148.1112630143567</v>
       </c>
       <c r="H44" t="n">
-        <v>34.70770194875913</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="I44" t="n">
-        <v>69.05724615082411</v>
+        <v>69.05724615082417</v>
       </c>
       <c r="J44" t="n">
-        <v>328.6783324444418</v>
+        <v>328.6783324444419</v>
       </c>
       <c r="K44" t="n">
-        <v>397.3021061078423</v>
+        <v>512.4569058304694</v>
       </c>
       <c r="L44" t="n">
-        <v>814.4023766375699</v>
+        <v>580.9808856115749</v>
       </c>
       <c r="M44" t="n">
-        <v>896.8932437584948</v>
+        <v>663.4717527324999</v>
       </c>
       <c r="N44" t="n">
-        <v>1326.401055374389</v>
+        <v>1059.339542774181</v>
       </c>
       <c r="O44" t="n">
-        <v>1326.401055374389</v>
+        <v>1477.338943856603</v>
       </c>
       <c r="P44" t="n">
-        <v>1392.421300936707</v>
+        <v>1543.359189418921</v>
       </c>
       <c r="Q44" t="n">
-        <v>1668.067689482094</v>
+        <v>1600.40606358087</v>
       </c>
       <c r="R44" t="n">
         <v>1709.413274014144</v>
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>34.70770194875913</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="C45" t="n">
-        <v>34.70770194875913</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="D45" t="n">
-        <v>34.70770194875913</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="E45" t="n">
-        <v>34.70770194875913</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="F45" t="n">
-        <v>34.70770194875913</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="G45" t="n">
-        <v>34.70770194875913</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="H45" t="n">
-        <v>34.70770194875913</v>
+        <v>79.31178448136239</v>
       </c>
       <c r="I45" t="n">
-        <v>34.70770194875913</v>
+        <v>79.31178448136239</v>
       </c>
       <c r="J45" t="n">
-        <v>34.70770194875913</v>
+        <v>79.31178448136239</v>
       </c>
       <c r="K45" t="n">
-        <v>34.70770194875913</v>
+        <v>79.31178448136239</v>
       </c>
       <c r="L45" t="n">
-        <v>34.70770194875913</v>
+        <v>79.31178448136239</v>
       </c>
       <c r="M45" t="n">
-        <v>34.70770194875913</v>
+        <v>79.31178448136239</v>
       </c>
       <c r="N45" t="n">
-        <v>34.70770194875913</v>
+        <v>79.31178448136239</v>
       </c>
       <c r="O45" t="n">
-        <v>34.70770194875913</v>
+        <v>79.31178448136239</v>
       </c>
       <c r="P45" t="n">
-        <v>79.31178448136257</v>
+        <v>79.31178448136239</v>
       </c>
       <c r="Q45" t="n">
-        <v>79.31178448136257</v>
+        <v>79.31178448136239</v>
       </c>
       <c r="R45" t="n">
-        <v>79.31178448136257</v>
+        <v>79.31178448136239</v>
       </c>
       <c r="S45" t="n">
-        <v>79.31178448136257</v>
+        <v>79.31178448136239</v>
       </c>
       <c r="T45" t="n">
-        <v>79.31178448136257</v>
+        <v>79.31178448136239</v>
       </c>
       <c r="U45" t="n">
-        <v>75.42646828940798</v>
+        <v>75.42646828940786</v>
       </c>
       <c r="V45" t="n">
-        <v>64.19870921521735</v>
+        <v>64.19870921521729</v>
       </c>
       <c r="W45" t="n">
-        <v>34.70770194875913</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="X45" t="n">
-        <v>34.70770194875913</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="Y45" t="n">
-        <v>34.70770194875913</v>
+        <v>34.70770194875912</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>75.0101644336265</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="C46" t="n">
-        <v>75.0101644336265</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="D46" t="n">
-        <v>75.0101644336265</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="E46" t="n">
-        <v>75.0101644336265</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="F46" t="n">
-        <v>75.0101644336265</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="G46" t="n">
-        <v>75.0101644336265</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="H46" t="n">
-        <v>75.0101644336265</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="I46" t="n">
-        <v>148.0003632975036</v>
+        <v>89.15183226543306</v>
       </c>
       <c r="J46" t="n">
-        <v>148.0003632975036</v>
+        <v>89.15183226543306</v>
       </c>
       <c r="K46" t="n">
-        <v>148.0003632975036</v>
+        <v>208.8051294572055</v>
       </c>
       <c r="L46" t="n">
-        <v>148.0003632975036</v>
+        <v>208.8051294572055</v>
       </c>
       <c r="M46" t="n">
-        <v>148.0003632975036</v>
+        <v>208.8051294572055</v>
       </c>
       <c r="N46" t="n">
-        <v>154.2615198053882</v>
+        <v>208.8051294572055</v>
       </c>
       <c r="O46" t="n">
-        <v>154.2615198053882</v>
+        <v>208.8051294572055</v>
       </c>
       <c r="P46" t="n">
-        <v>154.2615198053882</v>
+        <v>208.8051294572055</v>
       </c>
       <c r="Q46" t="n">
-        <v>154.2615198053882</v>
+        <v>208.8051294572055</v>
       </c>
       <c r="R46" t="n">
-        <v>211.0963177630775</v>
+        <v>208.8051294572055</v>
       </c>
       <c r="S46" t="n">
-        <v>211.0963177630775</v>
+        <v>211.0963177630772</v>
       </c>
       <c r="T46" t="n">
-        <v>204.4414603397901</v>
+        <v>204.4414603397899</v>
       </c>
       <c r="U46" t="n">
-        <v>138.5355193407235</v>
+        <v>138.5355193407233</v>
       </c>
       <c r="V46" t="n">
-        <v>106.0677400369531</v>
+        <v>106.0677400369529</v>
       </c>
       <c r="W46" t="n">
-        <v>40.10882354078221</v>
+        <v>40.10882354078214</v>
       </c>
       <c r="X46" t="n">
-        <v>34.70770194875913</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="Y46" t="n">
-        <v>34.70770194875913</v>
+        <v>34.70770194875912</v>
       </c>
     </row>
   </sheetData>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>134.4102078264584</v>
       </c>
       <c r="K11" t="n">
-        <v>209.1961939816683</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>40.06184343276006</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>135.1496335886351</v>
+        <v>19.32172687521334</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>43.34388051945687</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>29.11077865096332</v>
+        <v>65.7628464216244</v>
       </c>
       <c r="R11" t="n">
-        <v>68.34507666790174</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,28 +8766,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>98.58652704303779</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>91.5294166336067</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>77.45191162447881</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>59.01641885235144</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>75.87162509168576</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>79.93380909387048</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>102.5964794769921</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -8845,7 +8845,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>34.98169097563226</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8854,19 +8854,19 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>100.5664701794399</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>103.538292754451</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>67.95667671286152</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8927,28 +8927,28 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>54.06900854137056</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>10.8382013166668</v>
       </c>
       <c r="N14" t="n">
-        <v>135.1496335886351</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>140.7511784399488</v>
       </c>
       <c r="P14" t="n">
-        <v>210.2472711012229</v>
+        <v>56.69883490610086</v>
       </c>
       <c r="Q14" t="n">
         <v>163.1701443421163</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9012,7 +9012,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>71.31914540423536</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>79.93380909387048</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9082,7 +9082,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>34.98169097563226</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -9097,13 +9097,13 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>8.170029644657614</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>107.368049634244</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>67.95667671286152</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9881,13 +9881,13 @@
         <v>434.3676631324684</v>
       </c>
       <c r="M26" t="n">
-        <v>375.7927062633829</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N26" t="n">
-        <v>454.8408013884635</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>24.41322744333412</v>
       </c>
       <c r="P26" t="n">
         <v>334.6706564983419</v>
@@ -9948,34 +9948,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>98.58652704303779</v>
       </c>
       <c r="K27" t="n">
-        <v>91.5294166336067</v>
+        <v>274.7526330274047</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>77.45191162447881</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>71.31914540423536</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>59.01641885235144</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>75.87162509168576</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>79.93380909387048</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>102.5964794769921</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10030,19 +10030,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>34.98169097563226</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>99.93133320088076</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>185.6500473458235</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>90.43675181255534</v>
+        <v>178.6904255182403</v>
       </c>
       <c r="O28" t="n">
         <v>169.5633330205178</v>
@@ -10051,7 +10051,7 @@
         <v>107.368049634244</v>
       </c>
       <c r="Q28" t="n">
-        <v>67.95667671286152</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>134.4102078264584</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>151.4763064618625</v>
       </c>
       <c r="L29" t="n">
         <v>434.3676631324684</v>
@@ -10121,10 +10121,10 @@
         <v>467.4940748325458</v>
       </c>
       <c r="N29" t="n">
-        <v>454.8408013884635</v>
+        <v>135.1496335886351</v>
       </c>
       <c r="O29" t="n">
-        <v>396.0321885132552</v>
+        <v>207.6190379178913</v>
       </c>
       <c r="P29" t="n">
         <v>334.6706564983419</v>
@@ -10133,7 +10133,7 @@
         <v>220.8075902863009</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,31 +10188,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>98.58652704303779</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>91.5294166336067</v>
       </c>
       <c r="L30" t="n">
         <v>77.45191162447881</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>71.31914540423536</v>
       </c>
       <c r="N30" t="n">
         <v>59.01641885235144</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>75.87162509168576</v>
       </c>
       <c r="P30" t="n">
         <v>79.93380909387048</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>102.5964794769921</v>
       </c>
       <c r="R30" t="n">
-        <v>23.19548602134225</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10267,16 +10267,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>28.46220096984381</v>
       </c>
       <c r="K31" t="n">
-        <v>99.93133320088076</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>98.4250217880799</v>
       </c>
       <c r="M31" t="n">
-        <v>100.5664701794399</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>90.43675181255534</v>
@@ -10285,10 +10285,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>140.4068258466027</v>
       </c>
       <c r="Q31" t="n">
-        <v>67.95667671286152</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10352,25 +10352,25 @@
         <v>337.1112290740114</v>
       </c>
       <c r="L32" t="n">
-        <v>434.3676631324684</v>
+        <v>406.232389253062</v>
       </c>
       <c r="M32" t="n">
-        <v>467.4940748325458</v>
+        <v>137.4691413532519</v>
       </c>
       <c r="N32" t="n">
         <v>454.8408013884635</v>
       </c>
       <c r="O32" t="n">
-        <v>116.4401308157526</v>
+        <v>140.7511784399488</v>
       </c>
       <c r="P32" t="n">
         <v>334.6706564983419</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,22 +10428,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>91.5294166336067</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>77.45191162447881</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>71.31914540423536</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>59.01641885235144</v>
+        <v>199.6177190890951</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>79.93380909387048</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>102.5964794769921</v>
@@ -10507,25 +10507,25 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>111.0135169984386</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>98.4250217880799</v>
       </c>
       <c r="M34" t="n">
-        <v>124.707120619516</v>
+        <v>100.5664701794399</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>178.6904255182403</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>169.5633330205178</v>
       </c>
       <c r="P34" t="n">
         <v>107.368049634244</v>
       </c>
       <c r="Q34" t="n">
-        <v>67.95667671286152</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10586,16 +10586,16 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1112290740114</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>15.37676557397738</v>
+        <v>235.592049381882</v>
       </c>
       <c r="M35" t="n">
-        <v>350.5221661565349</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>348.2026583919178</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10604,10 +10604,10 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q35" t="n">
-        <v>163.1701443421163</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>68.34507666790174</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,19 +10659,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>10.53077703452832</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>91.5294166336067</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>71.31914540423536</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>47.34253660377365</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10744,10 +10744,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>99.93133320088076</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>98.4250217880799</v>
       </c>
       <c r="M37" t="n">
         <v>100.5664701794399</v>
@@ -10756,7 +10756,7 @@
         <v>90.43675181255534</v>
       </c>
       <c r="O37" t="n">
-        <v>103.538292754451</v>
+        <v>107.721305235604</v>
       </c>
       <c r="P37" t="n">
         <v>107.368049634244</v>
@@ -10820,19 +10820,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1112290740114</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>364.6301331664533</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M38" t="n">
-        <v>467.4940748325458</v>
+        <v>137.4691413532519</v>
       </c>
       <c r="N38" t="n">
-        <v>34.16920442276368</v>
+        <v>367.5465332044331</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10984,16 +10984,16 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>98.4250217880799</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>90.43675181255534</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>103.538292754451</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -11063,10 +11063,10 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>273.4612536066859</v>
+        <v>151.5771083631706</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>49.46454378290808</v>
       </c>
       <c r="N41" t="n">
         <v>454.8408013884635</v>
@@ -11139,10 +11139,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>56.90505686136512</v>
       </c>
       <c r="L42" t="n">
-        <v>77.45191162447881</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11215,7 +11215,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>34.98169097563226</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -11224,16 +11224,16 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>100.5664701794399</v>
       </c>
       <c r="N43" t="n">
         <v>90.43675181255534</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>103.538292754451</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>107.368049634244</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -11297,28 +11297,28 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L44" t="n">
-        <v>352.0972633824466</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>399.8930150685402</v>
+        <v>454.8408013884635</v>
       </c>
       <c r="O44" t="n">
-        <v>140.7511784399488</v>
+        <v>342.1795461387148</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>220.8075902863009</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,22 +11373,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>98.58652704303779</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>77.45191162447881</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>59.01641885235144</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>75.87162509168576</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11452,7 +11452,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>34.98169097563226</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -11461,19 +11461,19 @@
         <v>98.4250217880799</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>100.5664701794399</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>90.43675181255534</v>
       </c>
       <c r="O46" t="n">
         <v>103.538292754451</v>
       </c>
       <c r="P46" t="n">
-        <v>107.368049634244</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>67.95667671286152</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>68.52382425986775</v>
+        <v>68.52382425986769</v>
       </c>
       <c r="C11" t="n">
-        <v>160.6851538529331</v>
+        <v>160.685153852933</v>
       </c>
       <c r="D11" t="n">
         <v>150.3047909285888</v>
       </c>
       <c r="E11" t="n">
-        <v>176.8180939292779</v>
+        <v>176.8180939292778</v>
       </c>
       <c r="F11" t="n">
-        <v>92.10127774901355</v>
+        <v>200.9939216545312</v>
       </c>
       <c r="G11" t="n">
-        <v>157.2841697273914</v>
+        <v>99.16603629361393</v>
       </c>
       <c r="H11" t="n">
-        <v>126.7628331851384</v>
+        <v>45.3435001633552</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>14.49330773019685</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>45.13813028023963</v>
       </c>
       <c r="V11" t="n">
-        <v>122.2332796965098</v>
+        <v>122.2332796965097</v>
       </c>
       <c r="W11" t="n">
         <v>144.230175174545</v>
@@ -23324,7 +23324,7 @@
         <v>164.5616573051598</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.49448601970852</v>
+        <v>71.49448601970846</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>177.4164681653855</v>
+        <v>177.4164681653854</v>
       </c>
       <c r="C14" t="n">
-        <v>160.685153852933</v>
+        <v>51.79250994741528</v>
       </c>
       <c r="D14" t="n">
-        <v>41.41214702307107</v>
+        <v>150.3047909285888</v>
       </c>
       <c r="E14" t="n">
-        <v>176.8180939292779</v>
+        <v>67.92545002376011</v>
       </c>
       <c r="F14" t="n">
-        <v>92.10127774901352</v>
+        <v>200.9939216545312</v>
       </c>
       <c r="G14" t="n">
         <v>208.0586801991317</v>
       </c>
       <c r="H14" t="n">
-        <v>126.7628331851384</v>
+        <v>17.87018927962065</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,19 +23546,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>14.49330773019682</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>45.13813028023966</v>
+        <v>45.13813028023963</v>
       </c>
       <c r="V14" t="n">
-        <v>122.2332796965098</v>
+        <v>40.81394667472654</v>
       </c>
       <c r="W14" t="n">
-        <v>48.31753442256502</v>
+        <v>144.230175174545</v>
       </c>
       <c r="X14" t="n">
-        <v>55.66901339964207</v>
+        <v>164.5616573051598</v>
       </c>
       <c r="Y14" t="n">
         <v>180.3871299252262</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>987927.3956694757</v>
+        <v>987927.3956694755</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>987927.3956694758</v>
+        <v>987927.3956694757</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1247062.267375183</v>
+        <v>1247062.267375182</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1247062.267375183</v>
+        <v>1247062.267375182</v>
       </c>
     </row>
     <row r="13">
@@ -26314,16 +26314,16 @@
         <v>304558.6416584026</v>
       </c>
       <c r="C2" t="n">
-        <v>304558.6416584027</v>
+        <v>304558.6416584026</v>
       </c>
       <c r="D2" t="n">
         <v>304558.6416584026</v>
       </c>
       <c r="E2" t="n">
-        <v>261952.4107012849</v>
+        <v>261952.410701285</v>
       </c>
       <c r="F2" t="n">
-        <v>261952.4107012851</v>
+        <v>261952.410701285</v>
       </c>
       <c r="G2" t="n">
         <v>305219.778230601</v>
@@ -26332,25 +26332,25 @@
         <v>305219.778230601</v>
       </c>
       <c r="I2" t="n">
+        <v>305219.7782306009</v>
+      </c>
+      <c r="J2" t="n">
+        <v>305219.7782306012</v>
+      </c>
+      <c r="K2" t="n">
         <v>305219.7782306011</v>
       </c>
-      <c r="J2" t="n">
-        <v>305219.7782306014</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>305219.7782306012</v>
       </c>
-      <c r="L2" t="n">
-        <v>305219.7782306009</v>
-      </c>
       <c r="M2" t="n">
+        <v>305219.7782306013</v>
+      </c>
+      <c r="N2" t="n">
         <v>305219.7782306012</v>
       </c>
-      <c r="N2" t="n">
-        <v>305219.7782306013</v>
-      </c>
       <c r="O2" t="n">
-        <v>305219.7782306013</v>
+        <v>305219.7782306012</v>
       </c>
       <c r="P2" t="n">
         <v>305219.7782306012</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>296705.4171615928</v>
+        <v>296705.4171615929</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>101410.2665481107</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>101410.2665481108</v>
+        <v>101410.2665481107</v>
       </c>
       <c r="M3" t="n">
-        <v>25647.12785960521</v>
+        <v>25647.12785960519</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>49577.20523724917</v>
+        <v>49577.20523724925</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,7 +26427,7 @@
         <v>357576.97038701</v>
       </c>
       <c r="F4" t="n">
-        <v>357576.9703870099</v>
+        <v>357576.97038701</v>
       </c>
       <c r="G4" t="n">
         <v>421960.8835407404</v>
@@ -26442,10 +26442,10 @@
         <v>430175.9109578565</v>
       </c>
       <c r="K4" t="n">
-        <v>430175.9109578564</v>
+        <v>430175.9109578565</v>
       </c>
       <c r="L4" t="n">
-        <v>430175.9109578564</v>
+        <v>430175.9109578565</v>
       </c>
       <c r="M4" t="n">
         <v>426936.3852869387</v>
@@ -26476,7 +26476,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>26654.56406561557</v>
+        <v>26654.56406561558</v>
       </c>
       <c r="F5" t="n">
         <v>26654.56406561558</v>
@@ -26494,13 +26494,13 @@
         <v>51555.694944206</v>
       </c>
       <c r="K5" t="n">
-        <v>51555.694944206</v>
+        <v>51555.69494420599</v>
       </c>
       <c r="L5" t="n">
-        <v>51555.694944206</v>
+        <v>51555.69494420599</v>
       </c>
       <c r="M5" t="n">
-        <v>47630.18268478696</v>
+        <v>47630.18268478695</v>
       </c>
       <c r="N5" t="n">
         <v>47630.18268478695</v>
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-192621.078977289</v>
+        <v>-192625.486554437</v>
       </c>
       <c r="C6" t="n">
-        <v>-192621.0789772889</v>
+        <v>-192625.486554437</v>
       </c>
       <c r="D6" t="n">
-        <v>-192621.0789772891</v>
+        <v>-192625.486554437</v>
       </c>
       <c r="E6" t="n">
-        <v>-418984.5409129335</v>
+        <v>-419272.9900297954</v>
       </c>
       <c r="F6" t="n">
-        <v>-122279.1237513405</v>
+        <v>-122567.5728682026</v>
       </c>
       <c r="G6" t="n">
         <v>-255462.760546907</v>
@@ -26540,28 +26540,28 @@
         <v>-154052.4939987963</v>
       </c>
       <c r="I6" t="n">
-        <v>-154052.4939987962</v>
+        <v>-154052.4939987964</v>
       </c>
       <c r="J6" t="n">
-        <v>-339602.3075172244</v>
+        <v>-339602.3075172246</v>
       </c>
       <c r="K6" t="n">
-        <v>-176511.8276714612</v>
+        <v>-176511.8276714613</v>
       </c>
       <c r="L6" t="n">
-        <v>-277922.0942195722</v>
+        <v>-277922.0942195719</v>
       </c>
       <c r="M6" t="n">
-        <v>-194993.9176007297</v>
+        <v>-194993.9176007296</v>
       </c>
       <c r="N6" t="n">
-        <v>-169346.7897411243</v>
+        <v>-169346.7897411245</v>
       </c>
       <c r="O6" t="n">
-        <v>-218923.9949783735</v>
+        <v>-218923.9949783738</v>
       </c>
       <c r="P6" t="n">
-        <v>-169346.7897411244</v>
+        <v>-169346.7897411245</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>188.7343397316999</v>
       </c>
       <c r="K2" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="L2" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="M2" t="n">
-        <v>220.7932495562063</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="N2" t="n">
-        <v>220.7932495562063</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="O2" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="P2" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
     </row>
     <row r="3">
@@ -26811,25 +26811,25 @@
         <v>108.8926439055177</v>
       </c>
       <c r="J4" t="n">
-        <v>542.7389182650071</v>
+        <v>542.7389182650069</v>
       </c>
       <c r="K4" t="n">
-        <v>542.7389182650071</v>
+        <v>542.7389182650068</v>
       </c>
       <c r="L4" t="n">
-        <v>542.7389182650071</v>
+        <v>542.7389182650068</v>
       </c>
       <c r="M4" t="n">
-        <v>433.8462743594893</v>
+        <v>433.8462743594891</v>
       </c>
       <c r="N4" t="n">
-        <v>433.8462743594891</v>
+        <v>433.846274359489</v>
       </c>
       <c r="O4" t="n">
-        <v>433.8462743594891</v>
+        <v>433.846274359489</v>
       </c>
       <c r="P4" t="n">
-        <v>433.8462743594891</v>
+        <v>433.846274359489</v>
       </c>
     </row>
   </sheetData>
@@ -26917,7 +26917,7 @@
         <v>206.2999418260096</v>
       </c>
       <c r="F2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>126.7628331851384</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>61.97150654656141</v>
+        <v>61.97150654656153</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>126.7628331851384</v>
       </c>
       <c r="M2" t="n">
-        <v>32.05890982450651</v>
+        <v>32.05890982450649</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>61.97150654656147</v>
+        <v>61.97150654656156</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>433.8462743594894</v>
+        <v>433.8462743594891</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>206.2999418260096</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>126.7628331851384</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>61.97150654656141</v>
+        <v>61.97150654656153</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28111,34 +28111,34 @@
         <v>206.2999418260096</v>
       </c>
       <c r="J11" t="n">
-        <v>206.2999418260096</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>151.4763064618625</v>
       </c>
       <c r="L11" t="n">
         <v>206.2999418260096</v>
       </c>
       <c r="M11" t="n">
+        <v>146.4458899267755</v>
+      </c>
+      <c r="N11" t="n">
         <v>206.2999418260096</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>206.2999418260096</v>
       </c>
       <c r="P11" t="n">
+        <v>154.1061328265927</v>
+      </c>
+      <c r="Q11" t="n">
         <v>206.2999418260096</v>
       </c>
-      <c r="Q11" t="n">
-        <v>134.059365691153</v>
-      </c>
       <c r="R11" t="n">
-        <v>110.6849561892633</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="S11" t="n">
-        <v>194.5590844816488</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="T11" t="n">
         <v>206.2999418260096</v>
@@ -28190,28 +28190,28 @@
         <v>87.89457546438635</v>
       </c>
       <c r="J12" t="n">
-        <v>98.58652704303779</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>91.5294166336067</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>77.45191162447881</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>71.31914540423536</v>
+        <v>151.7491155252814</v>
       </c>
       <c r="N12" t="n">
-        <v>59.01641885235144</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>75.87162509168576</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>160.3637792149168</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>102.5964794769921</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>125.5557035337634</v>
@@ -28254,43 +28254,43 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E13" t="n">
-        <v>206.2999418260096</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F13" t="n">
-        <v>206.2999418260096</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G13" t="n">
-        <v>206.2999418260096</v>
+        <v>167.6670360907737</v>
       </c>
       <c r="H13" t="n">
-        <v>206.2999418260096</v>
+        <v>159.6553749464714</v>
       </c>
       <c r="I13" t="n">
-        <v>206.2999418260096</v>
+        <v>147.0657759563305</v>
       </c>
       <c r="J13" t="n">
-        <v>73.10435918684016</v>
+        <v>108.0860501624724</v>
       </c>
       <c r="K13" t="n">
-        <v>113.1894289533222</v>
+        <v>99.93133320088076</v>
       </c>
       <c r="L13" t="n">
         <v>98.4250217880799</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>100.5664701794399</v>
       </c>
       <c r="N13" t="n">
-        <v>90.43675181255534</v>
+        <v>187.6927443267998</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="P13" t="n">
         <v>107.368049634244</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.12493439304156</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="R13" t="n">
         <v>163.3843627302577</v>
@@ -28348,25 +28348,25 @@
         <v>206.2999418260096</v>
       </c>
       <c r="J14" t="n">
-        <v>206.2999418260096</v>
+        <v>134.4102078264584</v>
       </c>
       <c r="K14" t="n">
         <v>206.2999418260096</v>
       </c>
       <c r="L14" t="n">
-        <v>206.2999418260096</v>
+        <v>157.7346470547948</v>
       </c>
       <c r="M14" t="n">
         <v>206.2999418260096</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>135.1496335886351</v>
       </c>
       <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
         <v>206.2999418260096</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -28409,7 +28409,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D15" t="n">
-        <v>172.736084404441</v>
+        <v>172.7360844044409</v>
       </c>
       <c r="E15" t="n">
         <v>156.0334337071738</v>
@@ -28436,7 +28436,7 @@
         <v>77.45191162447881</v>
       </c>
       <c r="M15" t="n">
-        <v>71.31914540423536</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>59.01641885235144</v>
@@ -28445,7 +28445,7 @@
         <v>75.87162509168576</v>
       </c>
       <c r="P15" t="n">
-        <v>79.93380909387048</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>102.5964794769921</v>
@@ -28485,13 +28485,13 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C16" t="n">
-        <v>167.3365529312023</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="D16" t="n">
         <v>149.0055665145194</v>
       </c>
       <c r="E16" t="n">
-        <v>206.2999418260096</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F16" t="n">
         <v>146.1590214098045</v>
@@ -28500,37 +28500,37 @@
         <v>167.6670360907737</v>
       </c>
       <c r="H16" t="n">
+        <v>159.6553749464714</v>
+      </c>
+      <c r="I16" t="n">
         <v>206.2999418260096</v>
       </c>
-      <c r="I16" t="n">
-        <v>147.0657759563305</v>
-      </c>
       <c r="J16" t="n">
-        <v>73.10435918684016</v>
+        <v>108.0860501624724</v>
       </c>
       <c r="K16" t="n">
-        <v>99.93133320088076</v>
+        <v>180.0378585505384</v>
       </c>
       <c r="L16" t="n">
-        <v>121.0420588193194</v>
+        <v>98.4250217880799</v>
       </c>
       <c r="M16" t="n">
-        <v>206.2999418260096</v>
+        <v>100.5664701794399</v>
       </c>
       <c r="N16" t="n">
         <v>90.43675181255534</v>
       </c>
       <c r="O16" t="n">
-        <v>95.3682631097934</v>
+        <v>103.538292754451</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.12493439304156</v>
+        <v>129.0816111059031</v>
       </c>
       <c r="R16" t="n">
-        <v>206.2999418260096</v>
+        <v>163.3843627302577</v>
       </c>
       <c r="S16" t="n">
         <v>206.2999418260096</v>
@@ -28582,7 +28582,7 @@
         <v>333.062775011148</v>
       </c>
       <c r="I17" t="n">
-        <v>294.989384166709</v>
+        <v>186.0967402611913</v>
       </c>
       <c r="J17" t="n">
         <v>134.4102078264584</v>
@@ -28591,13 +28591,13 @@
         <v>151.4763064618625</v>
       </c>
       <c r="L17" t="n">
-        <v>151.5771083631706</v>
+        <v>169.9157930910996</v>
       </c>
       <c r="M17" t="n">
-        <v>241.9620824747083</v>
+        <v>137.4691413532519</v>
       </c>
       <c r="N17" t="n">
-        <v>244.0422774941528</v>
+        <v>135.1496335886351</v>
       </c>
       <c r="O17" t="n">
         <v>140.7511784399488</v>
@@ -28606,7 +28606,7 @@
         <v>154.1061328265927</v>
       </c>
       <c r="Q17" t="n">
-        <v>163.1701443421163</v>
+        <v>272.062788247634</v>
       </c>
       <c r="R17" t="n">
         <v>179.0300328571651</v>
@@ -28615,13 +28615,13 @@
         <v>303.4517283871666</v>
       </c>
       <c r="T17" t="n">
-        <v>220.7932495562064</v>
+        <v>329.6858934617242</v>
       </c>
       <c r="U17" t="n">
-        <v>251.4380721062493</v>
+        <v>333.062775011148</v>
       </c>
       <c r="V17" t="n">
-        <v>328.5332215225193</v>
+        <v>333.062775011148</v>
       </c>
       <c r="W17" t="n">
         <v>333.062775011148</v>
@@ -28822,7 +28822,7 @@
         <v>294.989384166709</v>
       </c>
       <c r="J20" t="n">
-        <v>134.4102078264584</v>
+        <v>234.3735954592862</v>
       </c>
       <c r="K20" t="n">
         <v>151.4763064618625</v>
@@ -28840,19 +28840,19 @@
         <v>140.7511784399488</v>
       </c>
       <c r="P20" t="n">
-        <v>262.9987767321105</v>
+        <v>154.1061328265927</v>
       </c>
       <c r="Q20" t="n">
         <v>163.1701443421163</v>
       </c>
       <c r="R20" t="n">
-        <v>278.9934204899928</v>
+        <v>287.9226767626828</v>
       </c>
       <c r="S20" t="n">
-        <v>303.4517283871666</v>
+        <v>194.5590844816488</v>
       </c>
       <c r="T20" t="n">
-        <v>220.7932495562064</v>
+        <v>329.6858934617242</v>
       </c>
       <c r="U20" t="n">
         <v>251.4380721062493</v>
@@ -29056,7 +29056,7 @@
         <v>333.062775011148</v>
       </c>
       <c r="I23" t="n">
-        <v>294.989384166709</v>
+        <v>186.0967402611913</v>
       </c>
       <c r="J23" t="n">
         <v>134.4102078264584</v>
@@ -29080,16 +29080,16 @@
         <v>154.1061328265927</v>
       </c>
       <c r="Q23" t="n">
-        <v>163.1701443421163</v>
+        <v>272.062788247634</v>
       </c>
       <c r="R23" t="n">
         <v>287.9226767626828</v>
       </c>
       <c r="S23" t="n">
-        <v>303.4517283871666</v>
+        <v>217.4273226982065</v>
       </c>
       <c r="T23" t="n">
-        <v>243.661487772764</v>
+        <v>329.6858934617242</v>
       </c>
       <c r="U23" t="n">
         <v>333.062775011148</v>
@@ -29293,7 +29293,7 @@
         <v>188.7343397316999</v>
       </c>
       <c r="I26" t="n">
-        <v>186.0967402611913</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29302,7 +29302,7 @@
         <v>188.7343397316999</v>
       </c>
       <c r="L26" t="n">
-        <v>150.6988121884787</v>
+        <v>109.3187386305354</v>
       </c>
       <c r="M26" t="n">
         <v>188.7343397316999</v>
@@ -29314,10 +29314,10 @@
         <v>188.7343397316999</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="R26" t="n">
         <v>188.7343397316999</v>
@@ -29351,7 +29351,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>188.7343397316999</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C27" t="n">
         <v>171.025583927401</v>
@@ -29372,34 +29372,34 @@
         <v>107.8987297172384</v>
       </c>
       <c r="I27" t="n">
-        <v>87.89457546438635</v>
+        <v>77.36379842985802</v>
       </c>
       <c r="J27" t="n">
-        <v>98.58652704303779</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>151.1750536422143</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>71.31914540423536</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>59.01641885235144</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>75.87162509168576</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>79.93380909387048</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>188.7343397316999</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>125.5557035337634</v>
+        <v>78.21316692998971</v>
       </c>
       <c r="S27" t="n">
         <v>164.0308087813356</v>
@@ -29433,7 +29433,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C28" t="n">
-        <v>188.7343397316999</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D28" t="n">
         <v>149.0055665145194</v>
@@ -29454,31 +29454,31 @@
         <v>147.0657759563305</v>
       </c>
       <c r="J28" t="n">
-        <v>73.10435918684016</v>
+        <v>108.0860501624724</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>99.93133320088076</v>
       </c>
       <c r="L28" t="n">
-        <v>175.6509922981763</v>
+        <v>98.4250217880799</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>100.5664701794399</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>59.67870337969276</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>188.7343397316999</v>
+        <v>129.0816111059031</v>
       </c>
       <c r="R28" t="n">
-        <v>188.7343397316999</v>
+        <v>163.3843627302577</v>
       </c>
       <c r="S28" t="n">
         <v>188.7343397316999</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="C29" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="D29" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="E29" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="F29" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="G29" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="H29" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="I29" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="K29" t="n">
-        <v>188.7343397316998</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="M29" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="N29" t="n">
-        <v>107.2342333299637</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>165.3325569111918</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="R29" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="S29" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="T29" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="U29" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="V29" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="W29" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="X29" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="Y29" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
     </row>
     <row r="30">
@@ -29588,13 +29588,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>165.3721256103448</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="C30" t="n">
-        <v>171.025583927401</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="D30" t="n">
-        <v>146.1124235746456</v>
+        <v>177.7434972410793</v>
       </c>
       <c r="E30" t="n">
         <v>156.0334337071738</v>
@@ -29612,52 +29612,52 @@
         <v>87.89457546438635</v>
       </c>
       <c r="J30" t="n">
-        <v>168.9470287968226</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>91.5294166336067</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>71.31914540423536</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>188.7343397316998</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>102.5964794769921</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>102.3602175124211</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="S30" t="n">
         <v>164.0308087813356</v>
       </c>
       <c r="T30" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="U30" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="V30" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="W30" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="X30" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="Y30" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
     </row>
     <row r="31">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>180.0836914906838</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="C31" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="D31" t="n">
-        <v>188.7343397316998</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E31" t="n">
-        <v>146.9746241731992</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="F31" t="n">
-        <v>188.7343397316998</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G31" t="n">
-        <v>188.7343397316998</v>
+        <v>167.6670360907737</v>
       </c>
       <c r="H31" t="n">
-        <v>188.7343397316998</v>
+        <v>159.6553749464714</v>
       </c>
       <c r="I31" t="n">
         <v>147.0657759563305</v>
       </c>
       <c r="J31" t="n">
-        <v>108.0860501624724</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>99.93133320088076</v>
       </c>
       <c r="L31" t="n">
-        <v>188.7343397316998</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>100.5664701794399</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>188.7343397316998</v>
+        <v>103.538292754451</v>
       </c>
       <c r="P31" t="n">
-        <v>180.7062950307932</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="Q31" t="n">
-        <v>61.12493439304156</v>
+        <v>129.0816111059031</v>
       </c>
       <c r="R31" t="n">
         <v>163.3843627302577</v>
       </c>
       <c r="S31" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="T31" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="U31" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="V31" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="W31" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="X31" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="Y31" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="C32" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="D32" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="E32" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="F32" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="G32" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="H32" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="I32" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="J32" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>85.03453333585735</v>
       </c>
       <c r="M32" t="n">
-        <v>188.7343397316998</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="O32" t="n">
-        <v>188.7343397316998</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>40.33804055555728</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="Q32" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="R32" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="S32" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="T32" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="U32" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="V32" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="W32" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="X32" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="Y32" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
     </row>
     <row r="33">
@@ -29831,7 +29831,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D33" t="n">
-        <v>146.1124235746456</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="E33" t="n">
         <v>156.0334337071738</v>
@@ -29843,7 +29843,7 @@
         <v>135.7577500944538</v>
       </c>
       <c r="H33" t="n">
-        <v>178.259231471023</v>
+        <v>107.8987297172384</v>
       </c>
       <c r="I33" t="n">
         <v>87.89457546438635</v>
@@ -29852,22 +29852,22 @@
         <v>98.58652704303779</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>91.5294166336067</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>77.45191162447881</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>71.31914540423536</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>188.7343397316998</v>
+        <v>75.87162509168576</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>79.93380909387048</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -29879,22 +29879,22 @@
         <v>164.0308087813356</v>
       </c>
       <c r="T33" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="U33" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="V33" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="W33" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="X33" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="Y33" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
     </row>
     <row r="34">
@@ -29904,10 +29904,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.7343397316998</v>
+        <v>183.3825233505951</v>
       </c>
       <c r="C34" t="n">
-        <v>167.3365529312023</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="D34" t="n">
         <v>149.0055665145194</v>
@@ -29916,64 +29916,64 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F34" t="n">
-        <v>146.1590214098045</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="G34" t="n">
         <v>167.6670360907737</v>
       </c>
       <c r="H34" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="I34" t="n">
-        <v>188.7343397316998</v>
+        <v>147.0657759563305</v>
       </c>
       <c r="J34" t="n">
-        <v>73.10435918684016</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="K34" t="n">
-        <v>99.93133320088076</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>188.7343397316998</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>188.7343397316998</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>188.7343397316998</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>61.12493439304156</v>
+        <v>129.0816111059031</v>
       </c>
       <c r="R34" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="S34" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="T34" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="U34" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="V34" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="W34" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="X34" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="Y34" t="n">
-        <v>188.7343397316998</v>
+        <v>188.7343397316999</v>
       </c>
     </row>
     <row r="35">
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>220.7932495562063</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="C35" t="n">
-        <v>220.7932495562063</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="D35" t="n">
-        <v>220.7932495562063</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="E35" t="n">
-        <v>220.7932495562063</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="F35" t="n">
-        <v>220.7932495562063</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="G35" t="n">
-        <v>220.7932495562063</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="H35" t="n">
-        <v>220.7932495562063</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="I35" t="n">
-        <v>220.7932495562063</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="J35" t="n">
-        <v>220.7932495562063</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="K35" t="n">
-        <v>220.7932495562063</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="L35" t="n">
-        <v>220.7932495562063</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="M35" t="n">
-        <v>220.7932495562063</v>
+        <v>72.55298073108952</v>
       </c>
       <c r="N35" t="n">
-        <v>220.7932495562063</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="O35" t="n">
-        <v>189.316381522895</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="P35" t="n">
-        <v>220.7932495562063</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="R35" t="n">
-        <v>220.7932495562063</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="S35" t="n">
-        <v>220.7932495562063</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="T35" t="n">
-        <v>220.7932495562063</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="U35" t="n">
-        <v>220.7932495562063</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="V35" t="n">
-        <v>220.7932495562063</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="W35" t="n">
-        <v>220.7932495562063</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="X35" t="n">
-        <v>220.7932495562063</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="Y35" t="n">
-        <v>220.7932495562063</v>
+        <v>220.7932495562064</v>
       </c>
     </row>
     <row r="36">
@@ -30077,25 +30077,25 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>180.8123789152656</v>
+        <v>135.7577500944538</v>
       </c>
       <c r="H36" t="n">
         <v>107.8987297172384</v>
       </c>
       <c r="I36" t="n">
-        <v>77.36379842985802</v>
+        <v>87.89457546438635</v>
       </c>
       <c r="J36" t="n">
         <v>98.58652704303779</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>91.5294166336067</v>
       </c>
       <c r="L36" t="n">
         <v>77.45191162447881</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>71.31914540423536</v>
       </c>
       <c r="N36" t="n">
         <v>59.01641885235144</v>
@@ -30110,22 +30110,22 @@
         <v>102.5964794769921</v>
       </c>
       <c r="R36" t="n">
-        <v>78.21316692998971</v>
+        <v>125.5557035337634</v>
       </c>
       <c r="S36" t="n">
-        <v>164.0308087813356</v>
+        <v>185.6047294207408</v>
       </c>
       <c r="T36" t="n">
-        <v>197.3125413748</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="U36" t="n">
-        <v>220.7932495562063</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="V36" t="n">
-        <v>220.7932495562063</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="W36" t="n">
-        <v>220.7932495562063</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="X36" t="n">
         <v>204.4616296084783</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>220.7932495562063</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C37" t="n">
         <v>167.3365529312023</v>
@@ -30156,10 +30156,10 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G37" t="n">
-        <v>220.7932495562063</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="H37" t="n">
-        <v>159.6553749464714</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="I37" t="n">
         <v>147.0657759563305</v>
@@ -30168,10 +30168,10 @@
         <v>108.0860501624724</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>99.93133320088076</v>
       </c>
       <c r="L37" t="n">
-        <v>180.7149935730491</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>129.0816111059031</v>
       </c>
       <c r="R37" t="n">
-        <v>163.3843627302577</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="S37" t="n">
-        <v>218.4789179341138</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="T37" t="n">
-        <v>220.7932495562063</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="U37" t="n">
-        <v>220.7932495562063</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="V37" t="n">
-        <v>220.7932495562063</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="W37" t="n">
-        <v>220.7932495562063</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="X37" t="n">
-        <v>220.7932495562063</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.7932495562063</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="38">
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>220.7932495562063</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="C38" t="n">
-        <v>220.7932495562063</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="D38" t="n">
-        <v>220.7932495562063</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="E38" t="n">
-        <v>220.7932495562063</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="F38" t="n">
-        <v>220.7932495562063</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="G38" t="n">
-        <v>220.7932495562063</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="H38" t="n">
-        <v>220.7932495562063</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="I38" t="n">
-        <v>220.7932495562063</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="J38" t="n">
-        <v>220.7932495562063</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="K38" t="n">
-        <v>141.230371397868</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="L38" t="n">
-        <v>220.7932495562063</v>
+        <v>27.94182068083956</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>220.7932495562063</v>
+        <v>201.4493747436911</v>
       </c>
       <c r="O38" t="n">
-        <v>220.7932495562063</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="Q38" t="n">
-        <v>220.7932495562063</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="R38" t="n">
-        <v>220.7932495562063</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="S38" t="n">
-        <v>220.7932495562063</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="T38" t="n">
-        <v>220.7932495562063</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="U38" t="n">
-        <v>220.7932495562063</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="V38" t="n">
-        <v>220.7932495562063</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="W38" t="n">
-        <v>220.7932495562063</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="X38" t="n">
-        <v>220.7932495562063</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="Y38" t="n">
-        <v>220.7932495562063</v>
+        <v>220.7932495562064</v>
       </c>
     </row>
     <row r="39">
@@ -30299,7 +30299,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>165.3721256103448</v>
+        <v>210.4267544311563</v>
       </c>
       <c r="C39" t="n">
         <v>171.025583927401</v>
@@ -30332,7 +30332,7 @@
         <v>77.45191162447881</v>
       </c>
       <c r="M39" t="n">
-        <v>116.3737742250472</v>
+        <v>71.31914540423536</v>
       </c>
       <c r="N39" t="n">
         <v>59.01641885235144</v>
@@ -30356,13 +30356,13 @@
         <v>197.3125413748</v>
       </c>
       <c r="U39" t="n">
-        <v>220.7932495562063</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="V39" t="n">
-        <v>220.7932495562063</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="W39" t="n">
-        <v>220.7932495562063</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="X39" t="n">
         <v>204.4616296084783</v>
@@ -30378,7 +30378,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>180.0836914906838</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="C40" t="n">
         <v>167.3365529312023</v>
@@ -30396,28 +30396,28 @@
         <v>167.6670360907737</v>
       </c>
       <c r="H40" t="n">
-        <v>159.6553749464714</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="I40" t="n">
-        <v>147.0657759563305</v>
+        <v>219.0297549749039</v>
       </c>
       <c r="J40" t="n">
-        <v>169.0014123650795</v>
+        <v>108.0860501624724</v>
       </c>
       <c r="K40" t="n">
         <v>99.93133320088076</v>
       </c>
       <c r="L40" t="n">
-        <v>98.4250217880799</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>100.5664701794399</v>
       </c>
       <c r="N40" t="n">
-        <v>90.43675181255534</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>220.7932495562063</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>107.368049634244</v>
@@ -30429,25 +30429,25 @@
         <v>163.3843627302577</v>
       </c>
       <c r="S40" t="n">
-        <v>218.4789179341138</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="T40" t="n">
-        <v>220.7932495562063</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="U40" t="n">
-        <v>220.7932495562063</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="V40" t="n">
-        <v>220.7932495562063</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="W40" t="n">
-        <v>220.7932495562063</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="X40" t="n">
-        <v>220.7932495562063</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.7486738677682</v>
+        <v>220.7932495562064</v>
       </c>
     </row>
     <row r="41">
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="C41" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="D41" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="E41" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="F41" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="G41" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="H41" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="I41" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="J41" t="n">
-        <v>134.4102078264584</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="K41" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="L41" t="n">
-        <v>220.7932495562064</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="N41" t="n">
-        <v>114.1551065596607</v>
+        <v>114.1551065596606</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>178.5652642861825</v>
       </c>
       <c r="P41" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="Q41" t="n">
-        <v>192.5287045553243</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="R41" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="S41" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="T41" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="U41" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="V41" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="W41" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="X41" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="Y41" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
     </row>
     <row r="42">
@@ -30557,16 +30557,16 @@
         <v>107.8987297172384</v>
       </c>
       <c r="I42" t="n">
-        <v>132.949204285198</v>
+        <v>87.89457546438635</v>
       </c>
       <c r="J42" t="n">
         <v>98.58652704303779</v>
       </c>
       <c r="K42" t="n">
-        <v>91.5294166336067</v>
+        <v>34.62435977224158</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>122.5065404452902</v>
       </c>
       <c r="M42" t="n">
         <v>71.31914540423536</v>
@@ -30593,13 +30593,13 @@
         <v>197.3125413748</v>
       </c>
       <c r="U42" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="V42" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="W42" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="X42" t="n">
         <v>204.4616296084783</v>
@@ -30624,13 +30624,13 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E43" t="n">
-        <v>220.7932495562064</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F43" t="n">
-        <v>197.3845015657267</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G43" t="n">
-        <v>220.7932495562064</v>
+        <v>167.6670360907737</v>
       </c>
       <c r="H43" t="n">
         <v>159.6553749464714</v>
@@ -30639,25 +30639,25 @@
         <v>147.0657759563305</v>
       </c>
       <c r="J43" t="n">
-        <v>73.10435918684016</v>
+        <v>108.0860501624724</v>
       </c>
       <c r="K43" t="n">
-        <v>99.93133320088076</v>
+        <v>155.7334244371159</v>
       </c>
       <c r="L43" t="n">
-        <v>98.4250217880799</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="M43" t="n">
-        <v>100.5664701794399</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>103.538292754451</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>107.368049634244</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>129.0816111059031</v>
@@ -30669,19 +30669,19 @@
         <v>218.4789179341138</v>
       </c>
       <c r="T43" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="U43" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="V43" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="W43" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="X43" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="Y43" t="n">
         <v>218.7486738677682</v>
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="C44" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="D44" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="E44" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="F44" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="G44" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="H44" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="I44" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="J44" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="K44" t="n">
-        <v>220.7932495562064</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="M44" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="N44" t="n">
-        <v>169.102892879584</v>
+        <v>80.1752867877281</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="P44" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="Q44" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="R44" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="S44" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="T44" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="U44" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="V44" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="W44" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="X44" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="Y44" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
     </row>
     <row r="45">
@@ -30791,31 +30791,31 @@
         <v>135.7577500944538</v>
       </c>
       <c r="H45" t="n">
-        <v>107.8987297172384</v>
+        <v>152.9533585380497</v>
       </c>
       <c r="I45" t="n">
         <v>87.89457546438635</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>98.58652704303779</v>
       </c>
       <c r="K45" t="n">
         <v>91.5294166336067</v>
       </c>
       <c r="L45" t="n">
-        <v>77.45191162447881</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>71.31914540423536</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>59.01641885235144</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>75.87162509168576</v>
       </c>
       <c r="P45" t="n">
-        <v>124.988437914682</v>
+        <v>79.93380909387048</v>
       </c>
       <c r="Q45" t="n">
         <v>102.5964794769921</v>
@@ -30830,13 +30830,13 @@
         <v>197.3125413748</v>
       </c>
       <c r="U45" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="V45" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="W45" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="X45" t="n">
         <v>204.4616296084783</v>
@@ -30852,7 +30852,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>220.7932495562064</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C46" t="n">
         <v>167.3365529312023</v>
@@ -30873,52 +30873,52 @@
         <v>159.6553749464714</v>
       </c>
       <c r="I46" t="n">
-        <v>220.7932495562064</v>
+        <v>202.0598469832739</v>
       </c>
       <c r="J46" t="n">
-        <v>73.10435918684016</v>
+        <v>108.0860501624724</v>
       </c>
       <c r="K46" t="n">
-        <v>99.93133320088076</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>100.5664701794399</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>96.76115232557009</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>107.368049634244</v>
       </c>
       <c r="Q46" t="n">
-        <v>61.12493439304156</v>
+        <v>129.0816111059031</v>
       </c>
       <c r="R46" t="n">
-        <v>220.7932495562064</v>
+        <v>163.3843627302577</v>
       </c>
       <c r="S46" t="n">
-        <v>218.4789179341138</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="T46" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="U46" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="V46" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="W46" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="X46" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="Y46" t="n">
         <v>218.7486738677682</v>
@@ -35404,37 +35404,37 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>20.20320156481829</v>
+        <v>20.20320156481834</v>
       </c>
       <c r="J11" t="n">
-        <v>71.88973399955113</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>57.71988751980583</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>54.72283346283898</v>
+        <v>54.72283346283903</v>
       </c>
       <c r="M11" t="n">
+        <v>8.976748573523608</v>
+      </c>
+      <c r="N11" t="n">
+        <v>90.47203511258782</v>
+      </c>
+      <c r="O11" t="n">
         <v>108.8926439055177</v>
       </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>65.5487633860608</v>
-      </c>
       <c r="P11" t="n">
-        <v>52.19380899941682</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>108.8926439055177</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>27.26990896884455</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>11.74085734436079</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -35495,7 +35495,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>80.42997012104607</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>80.4299701210463</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35516,7 +35516,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>8.987400451209538</v>
+        <v>8.987400451209595</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -35550,25 +35550,25 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>59.32531765281038</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>60.14092041620506</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>38.63290573523585</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>46.64456687953816</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>59.23416586967903</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>13.25809575244144</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -35577,16 +35577,16 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>97.25599251424441</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>102.7616490715586</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>77.21833072010654</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,37 +35641,37 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>20.20320156481831</v>
+        <v>20.20320156481834</v>
       </c>
       <c r="J14" t="n">
-        <v>71.88973399955115</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>54.82363536414714</v>
+        <v>108.8926439055177</v>
       </c>
       <c r="L14" t="n">
-        <v>54.72283346283901</v>
+        <v>6.157538691624197</v>
       </c>
       <c r="M14" t="n">
-        <v>68.8308004727577</v>
+        <v>79.66900178942454</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>65.54876338606083</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>56.14113827463017</v>
+        <v>108.8926439055177</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>27.26990896884452</v>
+        <v>95.61498563674628</v>
       </c>
       <c r="S14" t="n">
-        <v>11.74085734436076</v>
+        <v>11.74085734436079</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -35705,13 +35705,13 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>26.62366082979545</v>
+        <v>26.62366082979533</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>62.79370974246029</v>
+        <v>62.79370974246032</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -35781,13 +35781,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>38.96338889480728</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>59.32531765281041</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -35796,22 +35796,22 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>46.64456687953819</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>59.23416586967909</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>80.1065253496576</v>
       </c>
       <c r="L16" t="n">
-        <v>22.61703703123946</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>105.7334716465697</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -35820,13 +35820,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>98.93189219176557</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>42.91557909575194</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>18.338684727929</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>108.8926439055177</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>104.4929411214564</v>
-      </c>
-      <c r="N17" t="n">
-        <v>108.8926439055177</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35911,13 +35911,13 @@
         <v>108.8926439055177</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>108.8926439055177</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>81.62470290489875</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>4.529553488628665</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>108.8926439055177</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>99.96338763282773</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -36136,19 +36136,19 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
         <v>108.8926439055177</v>
       </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>99.96338763282772</v>
-      </c>
       <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
         <v>108.8926439055177</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -36352,40 +36352,40 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
         <v>108.8926439055177</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>108.8926439055177</v>
       </c>
       <c r="S23" t="n">
+        <v>22.8682382165577</v>
+      </c>
+      <c r="T23" t="n">
         <v>108.8926439055177</v>
-      </c>
-      <c r="T23" t="n">
-        <v>22.86823821655765</v>
       </c>
       <c r="U23" t="n">
         <v>81.62470290489875</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>2.637599470508647</v>
       </c>
       <c r="J26" t="n">
         <v>41.45027195249828</v>
@@ -36598,25 +36598,25 @@
         <v>374.3692623438488</v>
       </c>
       <c r="L26" t="n">
-        <v>433.4893669577765</v>
+        <v>392.1092933998332</v>
       </c>
       <c r="M26" t="n">
-        <v>427.0579046418309</v>
+        <v>518.7592732109938</v>
       </c>
       <c r="N26" t="n">
-        <v>508.4255075315282</v>
+        <v>53.58470614306478</v>
       </c>
       <c r="O26" t="n">
-        <v>47.9831612917511</v>
+        <v>72.39638873508527</v>
       </c>
       <c r="P26" t="n">
-        <v>180.5645236717492</v>
+        <v>369.2988634034492</v>
       </c>
       <c r="Q26" t="n">
-        <v>57.63744594418457</v>
+        <v>246.3717856758845</v>
       </c>
       <c r="R26" t="n">
-        <v>78.04938354243653</v>
+        <v>78.04938354243659</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36647,7 +36647,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>23.36221412135504</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -36674,10 +36674,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>183.223216393798</v>
       </c>
       <c r="L27" t="n">
-        <v>73.72314201773548</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36692,7 +36692,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>86.1378602547078</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36729,7 +36729,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>21.39778680049753</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -36756,25 +36756,25 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>77.22597051009643</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>85.08357716638361</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>147.9323770853777</v>
       </c>
       <c r="O28" t="n">
-        <v>66.02504026606675</v>
+        <v>254.7593799977667</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>127.6094053386583</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>25.34997700144221</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>2.637599470508505</v>
+        <v>2.637599470508647</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>230.1846116841982</v>
       </c>
       <c r="K29" t="n">
-        <v>37.25803326983733</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>471.5248945009976</v>
+        <v>471.5248945009977</v>
       </c>
       <c r="M29" t="n">
-        <v>518.7592732109937</v>
+        <v>518.7592732109938</v>
       </c>
       <c r="N29" t="n">
-        <v>426.925401129792</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>444.0153498050062</v>
+        <v>255.6021992096425</v>
       </c>
       <c r="P29" t="n">
-        <v>180.5645236717492</v>
+        <v>345.897080582941</v>
       </c>
       <c r="Q29" t="n">
-        <v>57.63744594418457</v>
+        <v>246.3717856758845</v>
       </c>
       <c r="R29" t="n">
-        <v>9.704306874534709</v>
+        <v>78.04938354243659</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36884,13 +36884,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>23.36221412135509</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>17.70875580429893</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>31.63107366643374</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>70.36050175378483</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36923,7 +36923,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>112.862714640014</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36932,7 +36932,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>110.5211728017102</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36963,37 +36963,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>8.650648241016114</v>
       </c>
       <c r="C31" t="n">
-        <v>21.39778680049744</v>
+        <v>21.39778680049758</v>
       </c>
       <c r="D31" t="n">
-        <v>39.72877321718042</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>41.75971555850074</v>
       </c>
       <c r="F31" t="n">
-        <v>42.57531832189528</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>21.06730364092607</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>29.07896478522838</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>109.1104905390713</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>90.30931794361987</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -37002,10 +37002,10 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>85.19604697724876</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>73.33824539654917</v>
+        <v>221.7731159440586</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>2.637599470508533</v>
+        <v>2.637599470508647</v>
       </c>
       <c r="J32" t="n">
-        <v>230.1846116841981</v>
+        <v>230.1846116841982</v>
       </c>
       <c r="K32" t="n">
-        <v>185.6349226121489</v>
+        <v>374.3692623438488</v>
       </c>
       <c r="L32" t="n">
-        <v>282.7905547692978</v>
+        <v>339.6898142257488</v>
       </c>
       <c r="M32" t="n">
-        <v>518.7592732109937</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>508.4255075315282</v>
+        <v>508.4255075315283</v>
       </c>
       <c r="O32" t="n">
-        <v>164.4232921075037</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>220.9025642273065</v>
+        <v>369.2988634034492</v>
       </c>
       <c r="Q32" t="n">
-        <v>25.56419538958351</v>
+        <v>246.3717856758845</v>
       </c>
       <c r="R32" t="n">
-        <v>9.704306874534737</v>
+        <v>78.04938354243659</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37127,7 +37127,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>42.62191615705436</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -37139,7 +37139,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>70.36050175378463</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -37157,10 +37157,10 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>140.6013002367436</v>
       </c>
       <c r="O33" t="n">
-        <v>112.862714640014</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37200,10 +37200,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>8.650648241016</v>
+        <v>3.298831859911278</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>21.39778680049758</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -37212,34 +37212,34 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>42.57531832189542</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>29.07896478522841</v>
+        <v>29.07896478522852</v>
       </c>
       <c r="I34" t="n">
-        <v>41.66856377536928</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>115.6299805448598</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>11.08218379755787</v>
       </c>
       <c r="L34" t="n">
-        <v>90.3093179436199</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>24.14065044007613</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>98.29758791914446</v>
+        <v>88.25367370568492</v>
       </c>
       <c r="O34" t="n">
-        <v>85.19604697724878</v>
+        <v>66.02504026606675</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -37248,7 +37248,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>25.34997700144215</v>
+        <v>25.34997700144227</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,37 +37300,37 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>34.69650929501505</v>
+        <v>34.69650929501513</v>
       </c>
       <c r="J35" t="n">
-        <v>86.38304172974789</v>
+        <v>86.38304172974797</v>
       </c>
       <c r="K35" t="n">
-        <v>406.4281721683552</v>
+        <v>69.31694309434396</v>
       </c>
       <c r="L35" t="n">
-        <v>84.59290676701313</v>
+        <v>304.8081905749178</v>
       </c>
       <c r="M35" t="n">
-        <v>433.8462743594893</v>
+        <v>402.5779142103835</v>
       </c>
       <c r="N35" t="n">
-        <v>85.64361596757118</v>
+        <v>433.8462743594891</v>
       </c>
       <c r="O35" t="n">
-        <v>48.56520308294624</v>
+        <v>80.04207111625765</v>
       </c>
       <c r="P35" t="n">
-        <v>401.3577732279555</v>
+        <v>180.5645236717492</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>57.62310521409011</v>
       </c>
       <c r="R35" t="n">
-        <v>110.108293366943</v>
+        <v>41.76321669904134</v>
       </c>
       <c r="S35" t="n">
-        <v>26.23416507455749</v>
+        <v>26.23416507455757</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -37373,7 +37373,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>45.05462882081181</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -37409,10 +37409,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>21.57392063940517</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>23.48070818140638</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -37437,7 +37437,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>40.70955806552251</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -37452,10 +37452,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>53.12621346543261</v>
+        <v>53.1262134654327</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>61.13787460973501</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -37467,7 +37467,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>82.28997178496918</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>4.183012481152962</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37485,10 +37485,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.40888682594876</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>2.314331622092561</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -37506,7 +37506,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.044575688438101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -37537,37 +37537,37 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>34.69650929501505</v>
+        <v>34.69650929501516</v>
       </c>
       <c r="J38" t="n">
-        <v>86.38304172974789</v>
+        <v>262.2435215087047</v>
       </c>
       <c r="K38" t="n">
-        <v>326.865294010017</v>
+        <v>69.31694309434398</v>
       </c>
       <c r="L38" t="n">
-        <v>433.8462743594891</v>
+        <v>310.7323754501374</v>
       </c>
       <c r="M38" t="n">
-        <v>330.024933479294</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>119.8128203903349</v>
+        <v>433.846274359489</v>
       </c>
       <c r="O38" t="n">
-        <v>80.04207111625756</v>
+        <v>80.04207111625767</v>
       </c>
       <c r="P38" t="n">
-        <v>180.5645236717492</v>
+        <v>401.3577732279556</v>
       </c>
       <c r="Q38" t="n">
-        <v>57.62310521409002</v>
+        <v>57.62310521409014</v>
       </c>
       <c r="R38" t="n">
-        <v>41.76321669904125</v>
+        <v>41.76321669904137</v>
       </c>
       <c r="S38" t="n">
-        <v>26.23416507455749</v>
+        <v>26.2341650745576</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -37595,7 +37595,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>45.05462882081147</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -37628,7 +37628,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>45.05462882081181</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37674,7 +37674,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>40.70955806552263</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -37692,13 +37692,13 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>61.13787460973504</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>71.96397901857335</v>
       </c>
       <c r="J40" t="n">
-        <v>60.91536220260711</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -37713,7 +37713,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>117.2549568017553</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -37725,7 +37725,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>2.31433162209259</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -37743,7 +37743,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>2.044575688438215</v>
       </c>
     </row>
     <row r="41">
@@ -37774,37 +37774,37 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.6965092950151</v>
+        <v>34.69650929501519</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>86.38304172974803</v>
       </c>
       <c r="K41" t="n">
-        <v>69.31694309434393</v>
+        <v>69.31694309434401</v>
       </c>
       <c r="L41" t="n">
-        <v>342.6773947997218</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>83.32410820295449</v>
+        <v>132.7886519858627</v>
       </c>
       <c r="N41" t="n">
-        <v>433.8462743594891</v>
+        <v>433.846274359489</v>
       </c>
       <c r="O41" t="n">
-        <v>255.2810100733064</v>
+        <v>433.846274359489</v>
       </c>
       <c r="P41" t="n">
         <v>401.3577732279556</v>
       </c>
       <c r="Q41" t="n">
-        <v>29.35856021320802</v>
+        <v>57.62310521409017</v>
       </c>
       <c r="R41" t="n">
-        <v>41.76321669904131</v>
+        <v>41.76321669904139</v>
       </c>
       <c r="S41" t="n">
-        <v>26.23416507455754</v>
+        <v>26.23416507455763</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>45.05462882081164</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37862,7 +37862,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>45.05462882081138</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37920,13 +37920,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>73.8186253830072</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>51.22548015592226</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>53.12621346543267</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>55.80209123623514</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>122.3682277681266</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -38011,37 +38011,37 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.69650929501513</v>
+        <v>34.69650929501519</v>
       </c>
       <c r="J44" t="n">
-        <v>262.2435215087047</v>
+        <v>262.2435215087048</v>
       </c>
       <c r="K44" t="n">
-        <v>69.31694309434396</v>
+        <v>185.6349226121489</v>
       </c>
       <c r="L44" t="n">
-        <v>421.3134045754824</v>
+        <v>69.21614119303588</v>
       </c>
       <c r="M44" t="n">
-        <v>83.32410820295452</v>
+        <v>83.32410820295458</v>
       </c>
       <c r="N44" t="n">
-        <v>433.8462743594891</v>
+        <v>399.8664545875564</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>422.2216172549725</v>
       </c>
       <c r="P44" t="n">
-        <v>66.68711672961366</v>
+        <v>66.68711672961372</v>
       </c>
       <c r="Q44" t="n">
-        <v>278.430695500391</v>
+        <v>57.62310521409017</v>
       </c>
       <c r="R44" t="n">
-        <v>41.76321669904134</v>
+        <v>110.1082933669431</v>
       </c>
       <c r="S44" t="n">
-        <v>26.23416507455757</v>
+        <v>26.23416507455763</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38087,7 +38087,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>45.05462882081139</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -38111,7 +38111,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>45.05462882081155</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38148,7 +38148,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>40.7095580655226</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -38169,13 +38169,13 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>73.72747359987588</v>
+        <v>54.99407102694337</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>120.8619163553257</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>6.324400513014755</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -38196,10 +38196,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.40888682594876</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>2.314331622092618</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
